--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606CCF2-A085-EC47-B9D3-E321453DBD96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$78</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1047">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3186,12 +3187,18 @@
   </si>
   <si>
     <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTE</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3396,7 +3403,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3456,14 +3463,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3519,7 +3527,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3575,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3615,7 +3623,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +3671,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,23 +4000,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -4114,7 +4123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2388192</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2390495</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2394650</v>
       </c>
@@ -4169,6 +4178,20 @@
       </c>
       <c r="Q5" s="6" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>13221514</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="45">
+        <v>998270828</v>
       </c>
     </row>
   </sheetData>
@@ -4178,21 +4201,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
@@ -4203,7 +4226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -4214,7 +4237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -4225,7 +4248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -4236,7 +4259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -4247,7 +4270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -4258,7 +4281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>110</v>
       </c>
@@ -4280,7 +4303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>111</v>
       </c>
@@ -4291,7 +4314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
@@ -4302,7 +4325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4310,7 +4333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
@@ -4318,7 +4341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
@@ -4326,7 +4349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
@@ -4334,7 +4357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
@@ -4342,7 +4365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
@@ -4350,27 +4373,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
@@ -4381,16 +4404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
@@ -4418,7 +4441,7 @@
         <v>991843845</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -4432,7 +4455,7 @@
         <v>991843845</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4459,7 +4482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4469,14 +4492,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -4487,7 +4510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4495,7 +4518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4503,7 +4526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4511,7 +4534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -4519,7 +4542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4537,20 +4560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" style="29" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>815</v>
       </c>
@@ -4558,7 +4581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>817</v>
       </c>
@@ -4566,7 +4589,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>819</v>
       </c>
@@ -4574,7 +4597,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>821</v>
       </c>
@@ -4582,17 +4605,17 @@
         <v>822</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>824</v>
       </c>
@@ -4603,22 +4626,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>825</v>
       </c>
@@ -4641,31 +4664,30 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="30" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.83203125" style="30" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5" style="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.1640625" style="30" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" style="30" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" style="30" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.25" style="30" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.1640625" style="30" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" style="30" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="30" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" style="30" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.83203125" style="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>850</v>
       </c>
@@ -4706,7 +4728,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>837</v>
       </c>
@@ -4741,21 +4763,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>851</v>
       </c>
@@ -4784,7 +4806,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -4795,7 +4817,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
         <v>1014</v>
       </c>
@@ -4810,23 +4832,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="32" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1640625" style="32" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="32" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.83203125" style="32" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5" style="32" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9" style="32" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>861</v>
       </c>
@@ -4861,7 +4883,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>872</v>
       </c>
@@ -4882,7 +4904,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>38</v>
       </c>
@@ -4903,7 +4925,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
@@ -4931,20 +4953,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>828</v>
       </c>
@@ -4955,7 +4977,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>872</v>
       </c>
@@ -4966,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
@@ -4977,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
@@ -4995,49 +5017,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5048,27 +5070,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -5109,7 +5131,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -5136,7 +5158,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -5163,7 +5185,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
@@ -5190,7 +5212,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>196</v>
       </c>
@@ -5223,7 +5245,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>202</v>
       </c>
@@ -5248,7 +5270,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>204</v>
       </c>
@@ -5273,7 +5295,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
@@ -5300,7 +5322,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>209</v>
       </c>
@@ -5327,7 +5349,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>891</v>
       </c>
@@ -5354,7 +5376,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>896</v>
       </c>
@@ -5381,7 +5403,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>902</v>
       </c>
@@ -5412,7 +5434,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>910</v>
       </c>
@@ -5437,7 +5459,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
         <v>989</v>
       </c>
@@ -5474,7 +5496,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>994</v>
       </c>
@@ -5505,7 +5527,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>997</v>
       </c>
@@ -5530,7 +5552,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>1004</v>
       </c>
@@ -5555,7 +5577,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>1015</v>
       </c>
@@ -5582,7 +5604,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>1020</v>
       </c>
@@ -5623,7 +5645,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>1026</v>
       </c>
@@ -5660,41 +5682,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
@@ -5954,7 +5976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
@@ -6005,7 +6027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -6093,48 +6115,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB78"/>
+  <autoFilter ref="A1:AB78" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -6313,7 +6335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
@@ -6394,7 +6416,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
@@ -6448,7 +6470,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -6535,7 +6557,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
@@ -6589,7 +6611,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
@@ -6673,7 +6695,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>130</v>
       </c>
@@ -6763,7 +6785,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>130</v>
       </c>
@@ -6844,7 +6866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>130</v>
       </c>
@@ -6898,7 +6920,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -6952,7 +6974,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>130</v>
       </c>
@@ -7006,7 +7028,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>130</v>
       </c>
@@ -7060,7 +7082,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>130</v>
       </c>
@@ -7114,7 +7136,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>130</v>
       </c>
@@ -7168,7 +7190,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>130</v>
       </c>
@@ -7222,7 +7244,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
@@ -7276,7 +7298,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>130</v>
       </c>
@@ -7330,7 +7352,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>130</v>
       </c>
@@ -7384,7 +7406,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>626</v>
       </c>
@@ -7438,7 +7460,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>626</v>
       </c>
@@ -7492,7 +7514,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>626</v>
       </c>
@@ -7546,7 +7568,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>626</v>
       </c>
@@ -7600,7 +7622,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>626</v>
       </c>
@@ -7654,7 +7676,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>626</v>
       </c>
@@ -7708,7 +7730,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>626</v>
       </c>
@@ -7762,7 +7784,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>626</v>
       </c>
@@ -7816,7 +7838,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>626</v>
       </c>
@@ -7870,7 +7892,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>626</v>
       </c>
@@ -7924,7 +7946,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>626</v>
       </c>
@@ -7978,7 +8000,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>626</v>
       </c>
@@ -8032,7 +8054,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>626</v>
       </c>
@@ -8104,7 +8126,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>626</v>
       </c>
@@ -8158,7 +8180,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>626</v>
       </c>
@@ -8212,7 +8234,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>626</v>
       </c>
@@ -8290,7 +8312,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>626</v>
       </c>
@@ -8344,7 +8366,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>626</v>
       </c>
@@ -8398,7 +8420,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>626</v>
       </c>
@@ -8452,7 +8474,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>626</v>
       </c>
@@ -8506,7 +8528,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>626</v>
       </c>
@@ -8560,7 +8582,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>626</v>
       </c>
@@ -8614,7 +8636,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>626</v>
       </c>
@@ -8668,7 +8690,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>626</v>
       </c>
@@ -8722,7 +8744,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>626</v>
       </c>
@@ -8776,7 +8798,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>626</v>
       </c>
@@ -8830,7 +8852,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>626</v>
       </c>
@@ -8884,7 +8906,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>626</v>
       </c>
@@ -8938,7 +8960,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>626</v>
       </c>
@@ -8992,7 +9014,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>626</v>
       </c>
@@ -9046,7 +9068,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>626</v>
       </c>
@@ -9100,7 +9122,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>626</v>
       </c>
@@ -9154,7 +9176,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>626</v>
       </c>
@@ -9208,7 +9230,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>626</v>
       </c>
@@ -9262,7 +9284,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>626</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>626</v>
       </c>
@@ -9370,7 +9392,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>626</v>
       </c>
@@ -9424,7 +9446,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>626</v>
       </c>
@@ -9478,7 +9500,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>626</v>
       </c>
@@ -9532,7 +9554,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>626</v>
       </c>
@@ -9586,7 +9608,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>626</v>
       </c>
@@ -9640,7 +9662,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>626</v>
       </c>
@@ -9694,7 +9716,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>626</v>
       </c>
@@ -9748,7 +9770,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>626</v>
       </c>
@@ -9802,7 +9824,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>626</v>
       </c>
@@ -9856,7 +9878,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>626</v>
       </c>
@@ -9910,7 +9932,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>626</v>
       </c>
@@ -9964,7 +9986,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>626</v>
       </c>
@@ -10018,7 +10040,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>626</v>
       </c>
@@ -10072,7 +10094,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>626</v>
       </c>
@@ -10126,7 +10148,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>626</v>
       </c>
@@ -10180,7 +10202,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>626</v>
       </c>
@@ -10234,7 +10256,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>626</v>
       </c>
@@ -10288,7 +10310,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>626</v>
       </c>
@@ -10342,7 +10364,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>626</v>
       </c>
@@ -10396,7 +10418,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>626</v>
       </c>
@@ -10450,7 +10472,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>626</v>
       </c>
@@ -10504,7 +10526,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>626</v>
       </c>
@@ -10558,7 +10580,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>626</v>
       </c>
@@ -10612,7 +10634,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>626</v>
       </c>
@@ -10672,41 +10694,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG7"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -10885,7 +10907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
@@ -10969,7 +10991,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
@@ -11023,7 +11045,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -11113,7 +11135,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
@@ -11167,7 +11189,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
@@ -11251,7 +11273,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>130</v>
       </c>
@@ -11342,14 +11364,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB78"/>
+  <autoFilter ref="A1:AB78" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -11357,16 +11379,16 @@
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
@@ -11386,7 +11408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>114</v>
       </c>
@@ -11404,7 +11426,7 @@
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -11422,7 +11444,7 @@
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
@@ -11440,7 +11462,7 @@
       </c>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
@@ -11458,7 +11480,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>114</v>
       </c>
@@ -11478,7 +11500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>114</v>
       </c>
@@ -11496,7 +11518,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>114</v>
       </c>
@@ -11514,7 +11536,7 @@
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>114</v>
       </c>
@@ -11532,7 +11554,7 @@
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>114</v>
       </c>
@@ -11550,7 +11572,7 @@
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>114</v>
       </c>
@@ -11568,7 +11590,7 @@
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>114</v>
       </c>
@@ -11586,7 +11608,7 @@
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>114</v>
       </c>
@@ -11604,7 +11626,7 @@
       </c>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>114</v>
       </c>
@@ -11624,7 +11646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>114</v>
       </c>
@@ -11642,7 +11664,7 @@
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>114</v>
       </c>
@@ -11662,7 +11684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>114</v>
       </c>
@@ -11680,7 +11702,7 @@
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>114</v>
       </c>
@@ -11698,7 +11720,7 @@
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>114</v>
       </c>
@@ -11716,7 +11738,7 @@
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>114</v>
       </c>
@@ -11734,7 +11756,7 @@
       </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>114</v>
       </c>
@@ -11752,7 +11774,7 @@
       </c>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
@@ -11770,7 +11792,7 @@
       </c>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>114</v>
       </c>
@@ -11788,7 +11810,7 @@
       </c>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>114</v>
       </c>
@@ -11806,7 +11828,7 @@
       </c>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>114</v>
       </c>
@@ -11824,7 +11846,7 @@
       </c>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>114</v>
       </c>
@@ -11842,7 +11864,7 @@
       </c>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>114</v>
       </c>
@@ -11860,7 +11882,7 @@
       </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>114</v>
       </c>
@@ -11880,7 +11902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>114</v>
       </c>
@@ -11898,7 +11920,7 @@
       </c>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>114</v>
       </c>
@@ -11916,7 +11938,7 @@
       </c>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>114</v>
       </c>
@@ -11934,7 +11956,7 @@
       </c>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>114</v>
       </c>
@@ -11952,7 +11974,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>114</v>
       </c>
@@ -11970,7 +11992,7 @@
       </c>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>114</v>
       </c>
@@ -11988,7 +12010,7 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>114</v>
       </c>
@@ -12006,7 +12028,7 @@
       </c>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>114</v>
       </c>
@@ -12024,7 +12046,7 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>114</v>
       </c>
@@ -12044,7 +12066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>114</v>
       </c>
@@ -12062,7 +12084,7 @@
       </c>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>114</v>
       </c>
@@ -12080,7 +12102,7 @@
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>114</v>
       </c>
@@ -12098,7 +12120,7 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>114</v>
       </c>
@@ -12116,7 +12138,7 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>114</v>
       </c>
@@ -12134,7 +12156,7 @@
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>114</v>
       </c>
@@ -12152,7 +12174,7 @@
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>114</v>
       </c>
@@ -12172,7 +12194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>114</v>
       </c>
@@ -12190,7 +12212,7 @@
       </c>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>114</v>
       </c>
@@ -12208,7 +12230,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>380</v>
       </c>
@@ -12226,7 +12248,7 @@
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>380</v>
       </c>
@@ -12244,7 +12266,7 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>380</v>
       </c>
@@ -12262,7 +12284,7 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>380</v>
       </c>
@@ -12280,7 +12302,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
         <v>380</v>
       </c>
@@ -12298,7 +12320,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>380</v>
       </c>
@@ -12316,7 +12338,7 @@
       </c>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>380</v>
       </c>
@@ -12334,7 +12356,7 @@
       </c>
       <c r="F53" s="25"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>380</v>
       </c>
@@ -12352,7 +12374,7 @@
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>380</v>
       </c>
@@ -12370,7 +12392,7 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>380</v>
       </c>
@@ -12388,7 +12410,7 @@
       </c>
       <c r="F56" s="25"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>380</v>
       </c>
@@ -12406,7 +12428,7 @@
       </c>
       <c r="F57" s="25"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>380</v>
       </c>
@@ -12424,7 +12446,7 @@
       </c>
       <c r="F58" s="25"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>380</v>
       </c>
@@ -12442,7 +12464,7 @@
       </c>
       <c r="F59" s="25"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>380</v>
       </c>
@@ -12460,7 +12482,7 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>380</v>
       </c>
@@ -12478,7 +12500,7 @@
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>380</v>
       </c>
@@ -12496,7 +12518,7 @@
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>380</v>
       </c>
@@ -12514,7 +12536,7 @@
       </c>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>380</v>
       </c>
@@ -12532,7 +12554,7 @@
       </c>
       <c r="F64" s="25"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
         <v>380</v>
       </c>
@@ -12550,7 +12572,7 @@
       </c>
       <c r="F65" s="25"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>380</v>
       </c>
@@ -12568,7 +12590,7 @@
       </c>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>380</v>
       </c>
@@ -12586,7 +12608,7 @@
       </c>
       <c r="F67" s="25"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>380</v>
       </c>
@@ -12604,7 +12626,7 @@
       </c>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>380</v>
       </c>
@@ -12622,7 +12644,7 @@
       </c>
       <c r="F69" s="25"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>380</v>
       </c>
@@ -12640,7 +12662,7 @@
       </c>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>380</v>
       </c>
@@ -12658,7 +12680,7 @@
       </c>
       <c r="F71" s="25"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>380</v>
       </c>
@@ -12676,7 +12698,7 @@
       </c>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>380</v>
       </c>
@@ -12694,7 +12716,7 @@
       </c>
       <c r="F73" s="25"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
         <v>380</v>
       </c>
@@ -12712,7 +12734,7 @@
       </c>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
         <v>380</v>
       </c>
@@ -12730,7 +12752,7 @@
       </c>
       <c r="F75" s="25"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>380</v>
       </c>
@@ -12748,7 +12770,7 @@
       </c>
       <c r="F76" s="25"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>380</v>
       </c>
@@ -12766,7 +12788,7 @@
       </c>
       <c r="F77" s="25"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="25" t="s">
         <v>380</v>
       </c>
@@ -12784,7 +12806,7 @@
       </c>
       <c r="F78" s="25"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>380</v>
       </c>
@@ -12802,7 +12824,7 @@
       </c>
       <c r="F79" s="25"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
         <v>380</v>
       </c>
@@ -12820,7 +12842,7 @@
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>380</v>
       </c>
@@ -12838,7 +12860,7 @@
       </c>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>380</v>
       </c>
@@ -12856,7 +12878,7 @@
       </c>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>380</v>
       </c>
@@ -12874,7 +12896,7 @@
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>522</v>
       </c>
@@ -12892,7 +12914,7 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
         <v>522</v>
       </c>
@@ -12910,7 +12932,7 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
         <v>522</v>
       </c>
@@ -12928,7 +12950,7 @@
       </c>
       <c r="F86" s="25"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>522</v>
       </c>
@@ -12946,7 +12968,7 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>522</v>
       </c>
@@ -12964,7 +12986,7 @@
       </c>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="25" t="s">
         <v>522</v>
       </c>
@@ -12982,7 +13004,7 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>522</v>
       </c>
@@ -13000,7 +13022,7 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>522</v>
       </c>
@@ -13018,7 +13040,7 @@
       </c>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>522</v>
       </c>
@@ -13036,7 +13058,7 @@
       </c>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>522</v>
       </c>
@@ -13054,7 +13076,7 @@
       </c>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>522</v>
       </c>
@@ -13072,7 +13094,7 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>522</v>
       </c>
@@ -13090,7 +13112,7 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>522</v>
       </c>
@@ -13108,7 +13130,7 @@
       </c>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>522</v>
       </c>
@@ -13128,7 +13150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>522</v>
       </c>
@@ -13146,7 +13168,7 @@
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>522</v>
       </c>
@@ -13164,7 +13186,7 @@
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>522</v>
       </c>
@@ -13182,7 +13204,7 @@
       </c>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>522</v>
       </c>
@@ -13200,7 +13222,7 @@
       </c>
       <c r="F101" s="25"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
         <v>522</v>
       </c>
@@ -13220,7 +13242,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>522</v>
       </c>
@@ -13238,7 +13260,7 @@
       </c>
       <c r="F103" s="25"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>522</v>
       </c>
@@ -13257,7 +13279,7 @@
       <c r="F104" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F104">
+  <autoFilter ref="A1:F104" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="Airtel Money"/>
@@ -13270,16 +13292,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
@@ -13299,7 +13321,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>114</v>
       </c>
@@ -13319,7 +13341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -13339,7 +13361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
@@ -13359,7 +13381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
@@ -13379,7 +13401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>114</v>
       </c>
@@ -13399,7 +13421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>114</v>
       </c>
@@ -13419,7 +13441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>114</v>
       </c>
@@ -13439,7 +13461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>114</v>
       </c>
@@ -13459,7 +13481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>114</v>
       </c>
@@ -13479,7 +13501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>114</v>
       </c>
@@ -13499,7 +13521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>114</v>
       </c>
@@ -13519,7 +13541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>114</v>
       </c>
@@ -13539,7 +13561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>114</v>
       </c>
@@ -13559,7 +13581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>114</v>
       </c>
@@ -13579,7 +13601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>114</v>
       </c>
@@ -13599,7 +13621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>114</v>
       </c>
@@ -13619,7 +13641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>114</v>
       </c>
@@ -13639,7 +13661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>380</v>
       </c>
@@ -13659,7 +13681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>380</v>
       </c>
@@ -13679,7 +13701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>380</v>
       </c>
@@ -13699,7 +13721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>380</v>
       </c>
@@ -13719,7 +13741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>380</v>
       </c>
@@ -13739,7 +13761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>380</v>
       </c>
@@ -13759,7 +13781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>380</v>
       </c>
@@ -13779,7 +13801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>380</v>
       </c>
@@ -13799,7 +13821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>380</v>
       </c>
@@ -13819,7 +13841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>380</v>
       </c>
@@ -13839,7 +13861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>522</v>
       </c>
@@ -13859,7 +13881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>522</v>
       </c>
@@ -13879,7 +13901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>522</v>
       </c>
@@ -13905,22 +13927,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -13940,7 +13962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
@@ -13957,7 +13979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>114</v>
       </c>
@@ -13974,7 +13996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>114</v>
       </c>
@@ -13991,7 +14013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>114</v>
       </c>
@@ -14008,7 +14030,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>114</v>
       </c>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606CCF2-A085-EC47-B9D3-E321453DBD96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BA894-65FF-AA4D-8930-06EC26A8E154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3080,9 +3080,6 @@
     <t>TWFyY2hAMTIzJA</t>
   </si>
   <si>
-    <t>RGVhdGhub3RlQDEyMw</t>
-  </si>
-  <si>
     <t>Transfer Anyway</t>
   </si>
   <si>
@@ -3193,6 +3190,9 @@
   </si>
   <si>
     <t>Beta</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3403,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3464,6 +3464,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4004,7 +4005,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4064,10 +4065,10 @@
         <v>217</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4128,7 +4129,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4164,8 +4165,8 @@
       <c r="A5">
         <v>2394650</v>
       </c>
-      <c r="B5" t="s">
-        <v>1010</v>
+      <c r="B5" s="46" t="s">
+        <v>1046</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -4185,10 +4186,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>1045</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>1046</v>
       </c>
       <c r="D6" s="45">
         <v>998270828</v>
@@ -4800,10 +4801,10 @@
         <v>857</v>
       </c>
       <c r="H1" s="42" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>1012</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4819,10 +4820,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4975,7 @@
         <v>829</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5119,16 +5120,16 @@
         <v>186</v>
       </c>
       <c r="J1" s="39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>1032</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5136,7 +5137,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -5199,7 +5200,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -5579,19 +5580,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>1015</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>1016</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="39" t="s">
         <v>1017</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>1018</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>1019</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>851</v>
@@ -5606,66 +5607,66 @@
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>1021</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="F19" s="39" t="s">
         <v>1022</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="G19" s="39" t="s">
         <v>1023</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>1024</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="43" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>1039</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="43" t="s">
         <v>1040</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>1041</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1027</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>1028</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="F20" s="39" t="s">
         <v>1029</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="G20" s="39" t="s">
         <v>1030</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>1031</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BA894-65FF-AA4D-8930-06EC26A8E154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E880E-19ED-5847-BA62-399C80AE3D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4005,7 +4005,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,47 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F979F5-7B45-8249-98A5-76351B27EE08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{88F979F5-7B45-8249-98A5-76351B27EE08}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="620" windowWidth="29380" windowHeight="9400" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="16" firstSheet="9" windowHeight="9400" windowWidth="29380" xWindow="1800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="620"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="11" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="11"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
+    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
+    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
+    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
+    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
+    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
+    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
+    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
+    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
+    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
+    <sheet name="QuestionAnswerKey" r:id="rId17" sheetId="24"/>
+    <sheet name="State Queue Mapping" r:id="rId18" sheetId="20"/>
+    <sheet name="Transfer To Queue" r:id="rId19" sheetId="21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1098">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3344,12 +3344,16 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>200621000463</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3556,87 +3560,87 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="5"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -3664,7 +3668,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3677,7 +3681,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3701,7 +3705,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3749,7 +3753,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3797,7 +3801,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3845,7 +3849,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3878,10 +3882,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3916,7 +3920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3968,7 +3972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4079,21 +4083,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4110,7 +4114,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4162,14 +4166,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4178,12 +4182,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.1640625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -4364,13 +4368,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4379,9 +4383,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,12 +4572,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4652,18 +4656,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4675,9 +4679,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4735,13 +4739,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4750,8 +4754,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="30.83203125" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4802,12 +4806,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4816,10 +4820,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4840,12 +4844,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4854,21 +4858,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.1640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="28" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="28" width="10.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="28" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="28" width="10.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="28" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="28" width="11.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="28" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>845</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+    <row ht="170" r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>832</v>
       </c>
@@ -4939,12 +4943,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4953,15 +4957,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.83203125" style="28"/>
-    <col min="3" max="3" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="8.83203125" style="28"/>
-    <col min="7" max="7" width="14" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.83203125" style="28"/>
+    <col min="1" max="1" customWidth="true" style="28" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" style="28" width="8.83203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="4" max="6" style="28" width="8.83203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="28" width="14.0" collapsed="true"/>
+    <col min="8" max="16384" style="28" width="8.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row ht="51" r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>846</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>853</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>1045</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>1046</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1047</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>1048</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>1049</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>1050</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>1051</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>1052</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1053</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>1054</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>1055</v>
       </c>
@@ -5194,13 +5198,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911BD093-C41B-0947-ADB4-3C063A0C412E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911BD093-C41B-0947-ADB4-3C063A0C412E}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5209,13 +5213,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" customWidth="true" style="28" width="41.5" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="28" width="36.83203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="28" width="57.6640625" collapsed="false"/>
+    <col min="4" max="16384" style="28" width="10.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>1056</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>1059</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>1062</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>160</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1067</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>1070</v>
       </c>
@@ -5279,7 +5283,7 @@
       </c>
       <c r="C6" s="46"/>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>1072</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>1075</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>1078</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>1081</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1084</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>1087</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>1090</v>
       </c>
@@ -5354,7 +5358,7 @@
       </c>
       <c r="C13" s="46"/>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>1092</v>
       </c>
@@ -5363,7 +5367,7 @@
       </c>
       <c r="C14" s="46"/>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1094</v>
       </c>
@@ -5375,12 +5379,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,11 +5393,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="30" collapsed="1"/>
-    <col min="3" max="3" width="13.83203125" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="30" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="30" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" style="30" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="13.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="30" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -5431,7 +5435,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>867</v>
       </c>
@@ -5452,7 +5456,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -5473,7 +5477,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5495,13 +5499,13 @@
       <c r="K4" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,8 +5514,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,13 +5563,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5574,7 +5578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5613,12 +5617,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5627,15 +5631,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -5679,7 +5683,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -5733,7 +5737,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>984</v>
       </c>
@@ -6152,7 +6156,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row ht="51" r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>1014</v>
       </c>
@@ -6223,48 +6227,48 @@
       <c r="M20" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6443,7 +6447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD4" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <f ref="BD3:BD4" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -6652,7 +6656,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -6664,13 +6668,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB78" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6679,32 +6683,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <f ref="BD3:BD66" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -7095,7 +7099,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -7146,7 +7150,7 @@
         <v>24</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE5" s="19" t="s">
@@ -7230,7 +7234,7 @@
         <v>24</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="17" t="s">
@@ -7320,7 +7324,7 @@
         <v>24</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="19" t="s">
@@ -7404,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="BD8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="17" t="s">
@@ -7455,7 +7459,7 @@
         <v>24</v>
       </c>
       <c r="BD9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE9" s="19" t="s">
@@ -7509,7 +7513,7 @@
         <v>24</v>
       </c>
       <c r="BD10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="17" t="s">
@@ -7563,7 +7567,7 @@
         <v>24</v>
       </c>
       <c r="BD11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE11" s="19" t="s">
@@ -7617,7 +7621,7 @@
         <v>24</v>
       </c>
       <c r="BD12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE12" s="17" t="s">
@@ -7671,7 +7675,7 @@
         <v>24</v>
       </c>
       <c r="BD13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE13" s="19" t="s">
@@ -7725,7 +7729,7 @@
         <v>24</v>
       </c>
       <c r="BD14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE14" s="17" t="s">
@@ -7779,7 +7783,7 @@
         <v>24</v>
       </c>
       <c r="BD15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE15" s="19" t="s">
@@ -7833,7 +7837,7 @@
         <v>24</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE16" s="17" t="s">
@@ -7887,7 +7891,7 @@
         <v>24</v>
       </c>
       <c r="BD17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE17" s="19" t="s">
@@ -7941,7 +7945,7 @@
         <v>24</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="17" t="s">
@@ -7995,7 +7999,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="19" t="s">
@@ -8049,7 +8053,7 @@
         <v>24</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE20" s="17" t="s">
@@ -8103,7 +8107,7 @@
         <v>24</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE21" s="19" t="s">
@@ -8157,7 +8161,7 @@
         <v>24</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="17" t="s">
@@ -8211,7 +8215,7 @@
         <v>24</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE23" s="19" t="s">
@@ -8265,7 +8269,7 @@
         <v>24</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="17" t="s">
@@ -8319,7 +8323,7 @@
         <v>24</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="19" t="s">
@@ -8373,7 +8377,7 @@
         <v>24</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="17" t="s">
@@ -8427,7 +8431,7 @@
         <v>24</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="19" t="s">
@@ -8481,7 +8485,7 @@
         <v>24</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE28" s="17" t="s">
@@ -8535,7 +8539,7 @@
         <v>24</v>
       </c>
       <c r="BD29">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE29" s="19" t="s">
@@ -8589,7 +8593,7 @@
         <v>24</v>
       </c>
       <c r="BD30">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE30" s="17" t="s">
@@ -8661,7 +8665,7 @@
         <v>24</v>
       </c>
       <c r="BD31">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE31" s="19" t="s">
@@ -8715,7 +8719,7 @@
         <v>24</v>
       </c>
       <c r="BD32">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE32" s="17" t="s">
@@ -8769,7 +8773,7 @@
         <v>24</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE33" s="19" t="s">
@@ -8847,7 +8851,7 @@
         <v>24</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE34" s="17" t="s">
@@ -8901,7 +8905,7 @@
         <v>24</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE35" s="19" t="s">
@@ -8955,7 +8959,7 @@
         <v>24</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE36" s="17" t="s">
@@ -9009,7 +9013,7 @@
         <v>48</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE37" s="19" t="s">
@@ -9063,7 +9067,7 @@
         <v>24</v>
       </c>
       <c r="BD38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE38" s="17" t="s">
@@ -9117,7 +9121,7 @@
         <v>24</v>
       </c>
       <c r="BD39">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE39" s="19" t="s">
@@ -9171,7 +9175,7 @@
         <v>24</v>
       </c>
       <c r="BD40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE40" s="17" t="s">
@@ -9225,7 +9229,7 @@
         <v>24</v>
       </c>
       <c r="BD41">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE41" s="19" t="s">
@@ -9279,7 +9283,7 @@
         <v>24</v>
       </c>
       <c r="BD42">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE42" s="17" t="s">
@@ -9333,7 +9337,7 @@
         <v>24</v>
       </c>
       <c r="BD43">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="19" t="s">
@@ -9387,7 +9391,7 @@
         <v>24</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE44" s="17" t="s">
@@ -9441,7 +9445,7 @@
         <v>24</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE45" s="19" t="s">
@@ -9495,7 +9499,7 @@
         <v>24</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE46" s="17" t="s">
@@ -9549,7 +9553,7 @@
         <v>24</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE47" s="19" t="s">
@@ -9603,7 +9607,7 @@
         <v>24</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE48" s="17" t="s">
@@ -9657,7 +9661,7 @@
         <v>24</v>
       </c>
       <c r="BD49">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE49" s="19" t="s">
@@ -9711,7 +9715,7 @@
         <v>48</v>
       </c>
       <c r="BD50">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE50" s="17" t="s">
@@ -9765,7 +9769,7 @@
         <v>48</v>
       </c>
       <c r="BD51">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE51" s="19" t="s">
@@ -9819,7 +9823,7 @@
         <v>24</v>
       </c>
       <c r="BD52">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE52" s="17" t="s">
@@ -9873,7 +9877,7 @@
         <v>24</v>
       </c>
       <c r="BD53">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE53" s="19" t="s">
@@ -9927,7 +9931,7 @@
         <v>24</v>
       </c>
       <c r="BD54">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="17" t="s">
@@ -9981,7 +9985,7 @@
         <v>24</v>
       </c>
       <c r="BD55">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE55" s="19" t="s">
@@ -10035,7 +10039,7 @@
         <v>24</v>
       </c>
       <c r="BD56">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE56" s="17" t="s">
@@ -10089,7 +10093,7 @@
         <v>24</v>
       </c>
       <c r="BD57">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE57" s="19" t="s">
@@ -10143,7 +10147,7 @@
         <v>24</v>
       </c>
       <c r="BD58">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE58" s="17" t="s">
@@ -10197,7 +10201,7 @@
         <v>48</v>
       </c>
       <c r="BD59">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE59" s="19" t="s">
@@ -10251,7 +10255,7 @@
         <v>24</v>
       </c>
       <c r="BD60">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE60" s="17" t="s">
@@ -10305,7 +10309,7 @@
         <v>24</v>
       </c>
       <c r="BD61">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="19" t="s">
@@ -10359,7 +10363,7 @@
         <v>24</v>
       </c>
       <c r="BD62">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="17" t="s">
@@ -10413,7 +10417,7 @@
         <v>48</v>
       </c>
       <c r="BD63">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE63" s="19" t="s">
@@ -10467,7 +10471,7 @@
         <v>24</v>
       </c>
       <c r="BD64">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="17" t="s">
@@ -10521,7 +10525,7 @@
         <v>24</v>
       </c>
       <c r="BD65">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE65" s="19" t="s">
@@ -10575,7 +10579,7 @@
         <v>24</v>
       </c>
       <c r="BD66">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE66" s="17" t="s">
@@ -10629,7 +10633,7 @@
         <v>24</v>
       </c>
       <c r="BD67">
-        <f t="shared" ref="BD67:BD78" si="1">SUM(AW67,AY67,BA67,BC67)</f>
+        <f ref="BD67:BD78" si="1" t="shared">SUM(AW67,AY67,BA67,BC67)</f>
         <v>24</v>
       </c>
       <c r="BE67" s="19" t="s">
@@ -10683,7 +10687,7 @@
         <v>24</v>
       </c>
       <c r="BD68">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE68" s="17" t="s">
@@ -10737,7 +10741,7 @@
         <v>24</v>
       </c>
       <c r="BD69">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE69" s="19" t="s">
@@ -10791,7 +10795,7 @@
         <v>24</v>
       </c>
       <c r="BD70">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE70" s="17" t="s">
@@ -10845,7 +10849,7 @@
         <v>24</v>
       </c>
       <c r="BD71">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE71" s="19" t="s">
@@ -10899,7 +10903,7 @@
         <v>24</v>
       </c>
       <c r="BD72">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE72" s="17" t="s">
@@ -10953,7 +10957,7 @@
         <v>24</v>
       </c>
       <c r="BD73">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE73" s="19" t="s">
@@ -11007,7 +11011,7 @@
         <v>24</v>
       </c>
       <c r="BD74">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE74" s="17" t="s">
@@ -11061,7 +11065,7 @@
         <v>24</v>
       </c>
       <c r="BD75">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="19" t="s">
@@ -11115,7 +11119,7 @@
         <v>24</v>
       </c>
       <c r="BD76">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE76" s="17" t="s">
@@ -11169,7 +11173,7 @@
         <v>24</v>
       </c>
       <c r="BD77">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE77" s="19" t="s">
@@ -11223,7 +11227,7 @@
         <v>48</v>
       </c>
       <c r="BD78">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE78" s="17" t="s">
@@ -11237,46 +11241,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -11455,7 +11459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -11536,32 +11540,32 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>809</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB73" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -11584,7 +11588,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -11602,7 +11606,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -11620,7 +11624,7 @@
       </c>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -11638,7 +11642,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -11676,7 +11680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -11694,7 +11698,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -11712,7 +11716,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -11730,7 +11734,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -11748,7 +11752,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -11766,7 +11770,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -11784,7 +11788,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -11878,7 +11882,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -11896,7 +11900,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>114</v>
       </c>
@@ -11914,7 +11918,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>114</v>
       </c>
@@ -11932,7 +11936,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
@@ -11950,7 +11954,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>114</v>
       </c>
@@ -11968,7 +11972,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>114</v>
       </c>
@@ -11986,7 +11990,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>114</v>
       </c>
@@ -12004,7 +12008,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
@@ -12022,7 +12026,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
@@ -12040,7 +12044,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>114</v>
       </c>
@@ -12058,7 +12062,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>114</v>
       </c>
@@ -12078,7 +12082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>114</v>
       </c>
@@ -12096,7 +12100,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>114</v>
       </c>
@@ -12114,7 +12118,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>114</v>
       </c>
@@ -12132,7 +12136,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>114</v>
       </c>
@@ -12150,7 +12154,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>114</v>
       </c>
@@ -12168,7 +12172,7 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -12186,7 +12190,7 @@
       </c>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
@@ -12204,7 +12208,7 @@
       </c>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>114</v>
       </c>
@@ -12222,7 +12226,7 @@
       </c>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>114</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>114</v>
       </c>
@@ -12260,7 +12264,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>114</v>
       </c>
@@ -12278,7 +12282,7 @@
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>114</v>
       </c>
@@ -12296,7 +12300,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>114</v>
       </c>
@@ -12314,7 +12318,7 @@
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>114</v>
       </c>
@@ -12332,7 +12336,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>114</v>
       </c>
@@ -12350,7 +12354,7 @@
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>114</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>114</v>
       </c>
@@ -12388,7 +12392,7 @@
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>114</v>
       </c>
@@ -12406,7 +12410,7 @@
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>380</v>
       </c>
@@ -12424,7 +12428,7 @@
       </c>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>380</v>
       </c>
@@ -12442,7 +12446,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>380</v>
       </c>
@@ -12460,7 +12464,7 @@
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>380</v>
       </c>
@@ -12478,7 +12482,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" ht="28" r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>380</v>
       </c>
@@ -12496,7 +12500,7 @@
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>380</v>
       </c>
@@ -12514,7 +12518,7 @@
       </c>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>380</v>
       </c>
@@ -12532,7 +12536,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>380</v>
       </c>
@@ -12550,7 +12554,7 @@
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12568,7 +12572,7 @@
       </c>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>380</v>
       </c>
@@ -12586,7 +12590,7 @@
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>380</v>
       </c>
@@ -12604,7 +12608,7 @@
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>380</v>
       </c>
@@ -12622,7 +12626,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>380</v>
       </c>
@@ -12640,7 +12644,7 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>380</v>
       </c>
@@ -12658,7 +12662,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>380</v>
       </c>
@@ -12676,7 +12680,7 @@
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>380</v>
       </c>
@@ -12694,7 +12698,7 @@
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>380</v>
       </c>
@@ -12712,7 +12716,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>380</v>
       </c>
@@ -12730,7 +12734,7 @@
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>380</v>
       </c>
@@ -12748,7 +12752,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>380</v>
       </c>
@@ -12766,7 +12770,7 @@
       </c>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>380</v>
       </c>
@@ -12784,7 +12788,7 @@
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>380</v>
       </c>
@@ -12802,7 +12806,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>380</v>
       </c>
@@ -12820,7 +12824,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>380</v>
       </c>
@@ -12838,7 +12842,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>380</v>
       </c>
@@ -12856,7 +12860,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>380</v>
       </c>
@@ -12874,7 +12878,7 @@
       </c>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>380</v>
       </c>
@@ -12892,7 +12896,7 @@
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>380</v>
       </c>
@@ -12910,7 +12914,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>380</v>
       </c>
@@ -12928,7 +12932,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>380</v>
       </c>
@@ -12946,7 +12950,7 @@
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>380</v>
       </c>
@@ -12964,7 +12968,7 @@
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>380</v>
       </c>
@@ -12982,7 +12986,7 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>380</v>
       </c>
@@ -13000,7 +13004,7 @@
       </c>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>380</v>
       </c>
@@ -13018,7 +13022,7 @@
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>380</v>
       </c>
@@ -13036,7 +13040,7 @@
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>380</v>
       </c>
@@ -13054,7 +13058,7 @@
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>380</v>
       </c>
@@ -13072,7 +13076,7 @@
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>522</v>
       </c>
@@ -13090,7 +13094,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>522</v>
       </c>
@@ -13108,7 +13112,7 @@
       </c>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>522</v>
       </c>
@@ -13126,7 +13130,7 @@
       </c>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>522</v>
       </c>
@@ -13144,7 +13148,7 @@
       </c>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>522</v>
       </c>
@@ -13162,7 +13166,7 @@
       </c>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>522</v>
       </c>
@@ -13180,7 +13184,7 @@
       </c>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>522</v>
       </c>
@@ -13198,7 +13202,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>522</v>
       </c>
@@ -13216,7 +13220,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>522</v>
       </c>
@@ -13234,7 +13238,7 @@
       </c>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>522</v>
       </c>
@@ -13252,7 +13256,7 @@
       </c>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>522</v>
       </c>
@@ -13270,7 +13274,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>522</v>
       </c>
@@ -13288,7 +13292,7 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>522</v>
       </c>
@@ -13306,7 +13310,7 @@
       </c>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>522</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" ht="28" r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>522</v>
       </c>
@@ -13344,7 +13348,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" ht="28" r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>522</v>
       </c>
@@ -13362,7 +13366,7 @@
       </c>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" ht="28" r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>522</v>
       </c>
@@ -13380,7 +13384,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
         <v>522</v>
       </c>
@@ -13398,7 +13402,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>522</v>
       </c>
@@ -13418,7 +13422,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>522</v>
       </c>
@@ -13436,7 +13440,7 @@
       </c>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row hidden="1" r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>522</v>
       </c>
@@ -13462,13 +13466,13 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14098,24 +14102,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -14156,6 +14160,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1101">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3347,6 +3347,15 @@
   </si>
   <si>
     <t>200621000463</t>
+  </si>
+  <si>
+    <t>210621000466</t>
+  </si>
+  <si>
+    <t>210621000471</t>
+  </si>
+  <si>
+    <t>210621000474</t>
   </si>
 </sst>
 </file>
@@ -4182,7 +4191,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.1640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="21.1640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="true"/>
@@ -4958,11 +4967,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="28" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" style="28" width="8.83203125" collapsed="false"/>
+    <col min="2" max="2" style="28" width="8.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="28" width="11.0" collapsed="true"/>
-    <col min="4" max="6" style="28" width="8.83203125" collapsed="false"/>
+    <col min="4" max="6" style="28" width="8.83203125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="28" width="14.0" collapsed="true"/>
-    <col min="8" max="16384" style="28" width="8.83203125" collapsed="false"/>
+    <col min="8" max="16384" style="28" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="51" r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5213,10 +5222,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="41.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="28" width="36.83203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="28" width="57.6640625" collapsed="false"/>
-    <col min="4" max="16384" style="28" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="28" width="41.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="28" width="36.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="57.6640625" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="17" r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -11540,7 +11549,7 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,47 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{88F979F5-7B45-8249-98A5-76351B27EE08}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="16" firstSheet="9" windowHeight="9400" windowWidth="29380" xWindow="1800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="620"/>
+    <workbookView xWindow="1800" yWindow="615" windowWidth="29385" windowHeight="9405" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="10"/>
-    <sheet name="Headers" r:id="rId3" sheetId="11"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
-    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
-    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
-    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
-    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
-    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
-    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
-    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
-    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
-    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
-    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
-    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
-    <sheet name="QuestionAnswerKey" r:id="rId17" sheetId="24"/>
-    <sheet name="State Queue Mapping" r:id="rId18" sheetId="20"/>
-    <sheet name="Transfer To Queue" r:id="rId19" sheetId="21"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="10" r:id="rId2"/>
+    <sheet name="Headers" sheetId="11" r:id="rId3"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1109">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2476,9 +2475,6 @@
   </si>
   <si>
     <t>COM084</t>
-  </si>
-  <si>
-    <t>030920000221</t>
   </si>
   <si>
     <t>Roles</t>
@@ -3346,23 +3342,49 @@
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
   <si>
-    <t>200621000463</t>
-  </si>
-  <si>
-    <t>210621000466</t>
-  </si>
-  <si>
-    <t>210621000471</t>
-  </si>
-  <si>
     <t>210621000474</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3569,91 +3591,91 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="5"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3677,7 +3699,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3690,7 +3712,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3709,12 +3731,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3757,12 +3779,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3805,12 +3827,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3853,12 +3875,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3891,10 +3913,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3929,7 +3951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3981,7 +4003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4092,21 +4114,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4123,7 +4145,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4175,31 +4197,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -4246,18 +4268,18 @@
         <v>217</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -4278,7 +4300,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -4305,12 +4327,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4322,12 +4344,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -4342,12 +4364,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -4362,42 +4384,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>13221514</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>1039</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1040</v>
       </c>
       <c r="D6" s="42">
         <v>998270828</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -4408,7 +4430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -4419,7 +4441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -4430,7 +4452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -4441,7 +4463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -4452,7 +4474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -4463,7 +4485,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -4474,7 +4496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>110</v>
       </c>
@@ -4485,7 +4507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>111</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
@@ -4507,7 +4529,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4515,7 +4537,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
@@ -4523,7 +4545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
@@ -4539,7 +4561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
@@ -4547,7 +4569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
@@ -4555,47 +4577,47 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -4609,10 +4631,10 @@
         <v>56</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
@@ -4629,7 +4651,7 @@
         <v>998270828</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -4646,7 +4668,7 @@
         <v>998270828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4665,18 +4687,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4686,14 +4708,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -4704,7 +4726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4712,7 +4734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4720,7 +4742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4728,7 +4750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4748,273 +4770,273 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="27" width="30.83203125" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="27" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>824</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="28" width="10.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="28" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="28" width="10.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="28" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="28" width="11.0" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="28" width="10.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="28" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="28" width="11.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="28" width="11.83203125" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="28" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="28" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.125" style="28" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="28" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="28" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row ht="170" r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" style="28" width="8.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="28" width="11.0" collapsed="true"/>
-    <col min="4" max="6" style="28" width="8.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="28" width="14.0" collapsed="true"/>
-    <col min="8" max="16384" style="28" width="8.83203125" collapsed="true"/>
+    <col min="1" max="1" width="13.375" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.875" style="28" collapsed="1"/>
+    <col min="3" max="3" width="11" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="8.875" style="28" collapsed="1"/>
+    <col min="7" max="7" width="14" style="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.875" style="28" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="51" r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>847</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="44" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row ht="17" r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="B2" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>854</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>855</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -5026,9 +5048,9 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="34" r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5037,18 +5059,18 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J3" s="38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row ht="34" r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5062,9 +5084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="17" r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5078,9 +5100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="17" r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5094,9 +5116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="17" r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -5110,9 +5132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="34" r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -5126,9 +5148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="17" r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -5142,9 +5164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="34" r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -5158,9 +5180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="17" r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -5174,9 +5196,9 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="17" r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -5190,9 +5212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="34" r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -5207,246 +5229,246 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911BD093-C41B-0947-ADB4-3C063A0C412E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="41.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="28" width="36.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="28" width="57.6640625" collapsed="true"/>
-    <col min="4" max="16384" style="28" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="41.5" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.875" style="28" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.625" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.875" style="28" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1056</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>1057</v>
       </c>
-      <c r="C1" s="38" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="B2" s="38" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>1060</v>
       </c>
-      <c r="C2" s="38" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row ht="34" r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="B3" s="38" t="s">
         <v>1062</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>1063</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row ht="17" r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="C4" s="38" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row ht="17" r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="B5" s="38" t="s">
         <v>1067</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="C5" s="38" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row ht="17" r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="B6" s="38" t="s">
         <v>1070</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>1071</v>
       </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row ht="17" r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="B7" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="C7" s="38" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row ht="17" r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="B8" s="38" t="s">
         <v>1075</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="C8" s="38" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row ht="17" r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="B9" s="38" t="s">
         <v>1078</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="38" t="s">
         <v>1079</v>
       </c>
-      <c r="C9" s="38" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row ht="17" r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="B10" s="38" t="s">
         <v>1081</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>1082</v>
       </c>
-      <c r="C10" s="38" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row ht="17" r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="B11" s="38" t="s">
         <v>1084</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="C11" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="C11" s="38" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row ht="17" r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="B12" s="38" t="s">
         <v>1087</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C12" s="38" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row ht="17" r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="B13" s="38" t="s">
         <v>1090</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>1091</v>
       </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row ht="17" r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="B14" s="38" t="s">
         <v>1092</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="C14" s="46"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>1093</v>
       </c>
-      <c r="C14" s="46"/>
-    </row>
-    <row ht="17" r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="B15" s="38" t="s">
         <v>1094</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C15" s="38" t="s">
         <v>1095</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>1096</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="30" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="30" width="13.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="30" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="30" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="30" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>856</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>860</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>864</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>865</v>
       </c>
-      <c r="K1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>866</v>
-      </c>
-    </row>
-    <row ht="16" r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>867</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>57</v>
@@ -5465,7 +5487,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row ht="16" r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -5486,7 +5508,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
     </row>
-    <row ht="16" r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5508,48 +5530,48 @@
       <c r="K4" s="29"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>824</v>
-      </c>
       <c r="C1" s="39" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C2" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
@@ -5560,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
@@ -5572,86 +5594,86 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -5680,24 +5702,24 @@
         <v>186</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>1026</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row ht="17" r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -5719,7 +5741,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -5736,7 +5758,7 @@
         <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5746,12 +5768,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row ht="17" r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -5760,7 +5782,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -5773,7 +5795,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>196</v>
       </c>
@@ -5799,14 +5821,14 @@
         <v>201</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>202</v>
       </c>
@@ -5831,7 +5853,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>204</v>
       </c>
@@ -5856,7 +5878,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
@@ -5883,7 +5905,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>209</v>
       </c>
@@ -5910,24 +5932,24 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5937,24 +5959,24 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>896</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5964,30 +5986,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
+        <v>896</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5995,21 +6017,21 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6020,12 +6042,12 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row ht="34" r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
@@ -6034,22 +6056,22 @@
         <v>195</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="37" t="s">
+        <v>985</v>
+      </c>
+      <c r="H14" s="37" t="s">
         <v>986</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>987</v>
       </c>
       <c r="I14" s="37" t="s">
         <v>214</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>201</v>
@@ -6057,9 +6079,9 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -6074,10 +6096,10 @@
         <v>168</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>991</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>195</v>
@@ -6088,21 +6110,21 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>995</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -6113,21 +6135,21 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="C17" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="37" t="s">
         <v>1002</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1003</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -6138,24 +6160,24 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>1011</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="37" t="s">
         <v>1012</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>1013</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -6165,68 +6187,68 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row ht="51" r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="37" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>1015</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>1016</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="G19" s="37" t="s">
         <v>1017</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>1018</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J19" s="40" t="s">
         <v>1033</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="K19" s="40" t="s">
         <v>1034</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>1035</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>189</v>
       </c>
       <c r="M19" s="37" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="B20" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1021</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>1022</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="F20" s="37" t="s">
         <v>1023</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="G20" s="37" t="s">
         <v>1024</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>1025</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6235,49 +6257,113 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6348,25 +6434,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y1" t="s">
         <v>868</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>869</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB1" t="s">
         <v>877</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>878</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -6375,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -6384,7 +6470,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -6393,7 +6479,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -6402,7 +6488,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -6411,10 +6497,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AT1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -6426,25 +6512,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="AY1" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AZ1" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="AZ1" s="34" t="s">
+      <c r="BA1" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BB1" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="35" t="s">
         <v>875</v>
-      </c>
-      <c r="BD1" s="35" t="s">
-        <v>876</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -6456,7 +6542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -6537,7 +6623,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
@@ -6578,7 +6664,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f ref="BD3:BD4" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
+        <f t="shared" ref="BD3:BD4" si="0">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -6588,7 +6674,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>130</v>
       </c>
@@ -6665,7 +6751,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -6676,48 +6762,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB78" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <autoFilter ref="A1:AB78"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6788,25 +6874,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y1" t="s">
         <v>868</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>869</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB1" t="s">
         <v>877</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>878</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -6815,7 +6901,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -6824,7 +6910,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -6833,7 +6919,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -6842,7 +6928,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -6851,10 +6937,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AT1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -6866,25 +6952,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="AY1" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AZ1" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="AZ1" s="34" t="s">
+      <c r="BA1" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BB1" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="35" t="s">
         <v>875</v>
-      </c>
-      <c r="BD1" s="35" t="s">
-        <v>876</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -6896,7 +6982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -6977,7 +7063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
@@ -7018,7 +7104,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f ref="BD3:BD66" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
+        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -7028,10 +7114,10 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>130</v>
       </c>
@@ -7108,7 +7194,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -7118,7 +7204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>130</v>
       </c>
@@ -7159,7 +7245,7 @@
         <v>24</v>
       </c>
       <c r="BD5">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE5" s="19" t="s">
@@ -7169,10 +7255,10 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>130</v>
       </c>
@@ -7243,7 +7329,7 @@
         <v>24</v>
       </c>
       <c r="BD6">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE6" s="17" t="s">
@@ -7253,10 +7339,10 @@
         <v>140</v>
       </c>
       <c r="BG6" s="36" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>130</v>
       </c>
@@ -7333,7 +7419,7 @@
         <v>24</v>
       </c>
       <c r="BD7">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE7" s="19" t="s">
@@ -7343,10 +7429,10 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>130</v>
       </c>
@@ -7417,7 +7503,7 @@
         <v>24</v>
       </c>
       <c r="BD8">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE8" s="17" t="s">
@@ -7427,7 +7513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>130</v>
       </c>
@@ -7468,7 +7554,7 @@
         <v>24</v>
       </c>
       <c r="BD9">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE9" s="19" t="s">
@@ -7478,10 +7564,10 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -7522,7 +7608,7 @@
         <v>24</v>
       </c>
       <c r="BD10">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE10" s="17" t="s">
@@ -7532,10 +7618,10 @@
         <v>140</v>
       </c>
       <c r="BG10" s="36" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>130</v>
       </c>
@@ -7576,7 +7662,7 @@
         <v>24</v>
       </c>
       <c r="BD11">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE11" s="19" t="s">
@@ -7586,10 +7672,10 @@
         <v>140</v>
       </c>
       <c r="BG11" s="36" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>130</v>
       </c>
@@ -7630,7 +7716,7 @@
         <v>24</v>
       </c>
       <c r="BD12">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE12" s="17" t="s">
@@ -7640,10 +7726,10 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>130</v>
       </c>
@@ -7684,7 +7770,7 @@
         <v>24</v>
       </c>
       <c r="BD13">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE13" s="19" t="s">
@@ -7694,10 +7780,10 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>130</v>
       </c>
@@ -7738,7 +7824,7 @@
         <v>24</v>
       </c>
       <c r="BD14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE14" s="17" t="s">
@@ -7748,10 +7834,10 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>130</v>
       </c>
@@ -7792,7 +7878,7 @@
         <v>24</v>
       </c>
       <c r="BD15">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE15" s="19" t="s">
@@ -7802,10 +7888,10 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>130</v>
       </c>
@@ -7846,7 +7932,7 @@
         <v>24</v>
       </c>
       <c r="BD16">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE16" s="17" t="s">
@@ -7856,10 +7942,10 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>130</v>
       </c>
@@ -7900,7 +7986,7 @@
         <v>24</v>
       </c>
       <c r="BD17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE17" s="19" t="s">
@@ -7910,10 +7996,10 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>130</v>
       </c>
@@ -7954,7 +8040,7 @@
         <v>24</v>
       </c>
       <c r="BD18">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE18" s="17" t="s">
@@ -7964,10 +8050,10 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>626</v>
       </c>
@@ -8008,7 +8094,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE19" s="19" t="s">
@@ -8018,10 +8104,10 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>626</v>
       </c>
@@ -8062,7 +8148,7 @@
         <v>24</v>
       </c>
       <c r="BD20">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE20" s="17" t="s">
@@ -8072,10 +8158,10 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>626</v>
       </c>
@@ -8116,7 +8202,7 @@
         <v>24</v>
       </c>
       <c r="BD21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE21" s="19" t="s">
@@ -8126,10 +8212,10 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>626</v>
       </c>
@@ -8170,7 +8256,7 @@
         <v>24</v>
       </c>
       <c r="BD22">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE22" s="17" t="s">
@@ -8180,10 +8266,10 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>626</v>
       </c>
@@ -8224,7 +8310,7 @@
         <v>24</v>
       </c>
       <c r="BD23">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE23" s="19" t="s">
@@ -8234,10 +8320,10 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>626</v>
       </c>
@@ -8278,7 +8364,7 @@
         <v>24</v>
       </c>
       <c r="BD24">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE24" s="17" t="s">
@@ -8288,10 +8374,10 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>626</v>
       </c>
@@ -8332,7 +8418,7 @@
         <v>24</v>
       </c>
       <c r="BD25">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE25" s="19" t="s">
@@ -8342,10 +8428,10 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>626</v>
       </c>
@@ -8386,7 +8472,7 @@
         <v>24</v>
       </c>
       <c r="BD26">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE26" s="17" t="s">
@@ -8396,10 +8482,10 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>626</v>
       </c>
@@ -8440,7 +8526,7 @@
         <v>24</v>
       </c>
       <c r="BD27">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE27" s="19" t="s">
@@ -8450,10 +8536,10 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>626</v>
       </c>
@@ -8494,7 +8580,7 @@
         <v>24</v>
       </c>
       <c r="BD28">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE28" s="17" t="s">
@@ -8504,10 +8590,10 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>626</v>
       </c>
@@ -8548,7 +8634,7 @@
         <v>24</v>
       </c>
       <c r="BD29">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE29" s="19" t="s">
@@ -8558,10 +8644,10 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>626</v>
       </c>
@@ -8602,7 +8688,7 @@
         <v>24</v>
       </c>
       <c r="BD30">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE30" s="17" t="s">
@@ -8612,10 +8698,10 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>626</v>
       </c>
@@ -8674,7 +8760,7 @@
         <v>24</v>
       </c>
       <c r="BD31">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE31" s="19" t="s">
@@ -8684,10 +8770,10 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>626</v>
       </c>
@@ -8728,7 +8814,7 @@
         <v>24</v>
       </c>
       <c r="BD32">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE32" s="17" t="s">
@@ -8738,10 +8824,10 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>626</v>
       </c>
@@ -8782,7 +8868,7 @@
         <v>24</v>
       </c>
       <c r="BD33">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE33" s="19" t="s">
@@ -8792,10 +8878,10 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>626</v>
       </c>
@@ -8860,7 +8946,7 @@
         <v>24</v>
       </c>
       <c r="BD34">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE34" s="17" t="s">
@@ -8870,10 +8956,10 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>626</v>
       </c>
@@ -8914,7 +9000,7 @@
         <v>24</v>
       </c>
       <c r="BD35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE35" s="19" t="s">
@@ -8924,10 +9010,10 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>626</v>
       </c>
@@ -8968,7 +9054,7 @@
         <v>24</v>
       </c>
       <c r="BD36">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE36" s="17" t="s">
@@ -8978,10 +9064,10 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>626</v>
       </c>
@@ -9022,7 +9108,7 @@
         <v>48</v>
       </c>
       <c r="BD37">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE37" s="19" t="s">
@@ -9032,10 +9118,10 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>626</v>
       </c>
@@ -9076,7 +9162,7 @@
         <v>24</v>
       </c>
       <c r="BD38">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE38" s="17" t="s">
@@ -9086,10 +9172,10 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>626</v>
       </c>
@@ -9130,7 +9216,7 @@
         <v>24</v>
       </c>
       <c r="BD39">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE39" s="19" t="s">
@@ -9140,10 +9226,10 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>626</v>
       </c>
@@ -9184,7 +9270,7 @@
         <v>24</v>
       </c>
       <c r="BD40">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE40" s="17" t="s">
@@ -9194,10 +9280,10 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>626</v>
       </c>
@@ -9238,7 +9324,7 @@
         <v>24</v>
       </c>
       <c r="BD41">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE41" s="19" t="s">
@@ -9248,10 +9334,10 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>626</v>
       </c>
@@ -9292,7 +9378,7 @@
         <v>24</v>
       </c>
       <c r="BD42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE42" s="17" t="s">
@@ -9302,10 +9388,10 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>626</v>
       </c>
@@ -9346,7 +9432,7 @@
         <v>24</v>
       </c>
       <c r="BD43">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE43" s="19" t="s">
@@ -9356,10 +9442,10 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>626</v>
       </c>
@@ -9400,7 +9486,7 @@
         <v>24</v>
       </c>
       <c r="BD44">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE44" s="17" t="s">
@@ -9410,10 +9496,10 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>626</v>
       </c>
@@ -9454,7 +9540,7 @@
         <v>24</v>
       </c>
       <c r="BD45">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE45" s="19" t="s">
@@ -9464,10 +9550,10 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>626</v>
       </c>
@@ -9508,7 +9594,7 @@
         <v>24</v>
       </c>
       <c r="BD46">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE46" s="17" t="s">
@@ -9518,10 +9604,10 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>626</v>
       </c>
@@ -9562,7 +9648,7 @@
         <v>24</v>
       </c>
       <c r="BD47">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE47" s="19" t="s">
@@ -9572,10 +9658,10 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>626</v>
       </c>
@@ -9616,7 +9702,7 @@
         <v>24</v>
       </c>
       <c r="BD48">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE48" s="17" t="s">
@@ -9626,10 +9712,10 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>626</v>
       </c>
@@ -9670,7 +9756,7 @@
         <v>24</v>
       </c>
       <c r="BD49">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE49" s="19" t="s">
@@ -9680,10 +9766,10 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>626</v>
       </c>
@@ -9724,7 +9810,7 @@
         <v>48</v>
       </c>
       <c r="BD50">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE50" s="17" t="s">
@@ -9734,10 +9820,10 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>626</v>
       </c>
@@ -9778,7 +9864,7 @@
         <v>48</v>
       </c>
       <c r="BD51">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE51" s="19" t="s">
@@ -9788,10 +9874,10 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>626</v>
       </c>
@@ -9832,7 +9918,7 @@
         <v>24</v>
       </c>
       <c r="BD52">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE52" s="17" t="s">
@@ -9842,10 +9928,10 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>626</v>
       </c>
@@ -9886,7 +9972,7 @@
         <v>24</v>
       </c>
       <c r="BD53">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE53" s="19" t="s">
@@ -9896,10 +9982,10 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>626</v>
       </c>
@@ -9940,7 +10026,7 @@
         <v>24</v>
       </c>
       <c r="BD54">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE54" s="17" t="s">
@@ -9950,10 +10036,10 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>626</v>
       </c>
@@ -9994,7 +10080,7 @@
         <v>24</v>
       </c>
       <c r="BD55">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE55" s="19" t="s">
@@ -10004,10 +10090,10 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>626</v>
       </c>
@@ -10048,7 +10134,7 @@
         <v>24</v>
       </c>
       <c r="BD56">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE56" s="17" t="s">
@@ -10058,10 +10144,10 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>626</v>
       </c>
@@ -10102,7 +10188,7 @@
         <v>24</v>
       </c>
       <c r="BD57">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE57" s="19" t="s">
@@ -10112,10 +10198,10 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>626</v>
       </c>
@@ -10156,7 +10242,7 @@
         <v>24</v>
       </c>
       <c r="BD58">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE58" s="17" t="s">
@@ -10166,10 +10252,10 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>626</v>
       </c>
@@ -10210,7 +10296,7 @@
         <v>48</v>
       </c>
       <c r="BD59">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE59" s="19" t="s">
@@ -10220,10 +10306,10 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>626</v>
       </c>
@@ -10264,7 +10350,7 @@
         <v>24</v>
       </c>
       <c r="BD60">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE60" s="17" t="s">
@@ -10274,10 +10360,10 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>626</v>
       </c>
@@ -10318,7 +10404,7 @@
         <v>24</v>
       </c>
       <c r="BD61">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE61" s="19" t="s">
@@ -10328,10 +10414,10 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>626</v>
       </c>
@@ -10372,7 +10458,7 @@
         <v>24</v>
       </c>
       <c r="BD62">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE62" s="17" t="s">
@@ -10382,10 +10468,10 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>626</v>
       </c>
@@ -10426,7 +10512,7 @@
         <v>48</v>
       </c>
       <c r="BD63">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE63" s="19" t="s">
@@ -10436,10 +10522,10 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>626</v>
       </c>
@@ -10480,7 +10566,7 @@
         <v>24</v>
       </c>
       <c r="BD64">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE64" s="17" t="s">
@@ -10490,10 +10576,10 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>626</v>
       </c>
@@ -10534,7 +10620,7 @@
         <v>24</v>
       </c>
       <c r="BD65">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE65" s="19" t="s">
@@ -10544,10 +10630,10 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>626</v>
       </c>
@@ -10588,7 +10674,7 @@
         <v>24</v>
       </c>
       <c r="BD66">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE66" s="17" t="s">
@@ -10598,10 +10684,10 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>626</v>
       </c>
@@ -10642,7 +10728,7 @@
         <v>24</v>
       </c>
       <c r="BD67">
-        <f ref="BD67:BD78" si="1" t="shared">SUM(AW67,AY67,BA67,BC67)</f>
+        <f t="shared" ref="BD67:BD78" si="1">SUM(AW67,AY67,BA67,BC67)</f>
         <v>24</v>
       </c>
       <c r="BE67" s="19" t="s">
@@ -10652,10 +10738,10 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>626</v>
       </c>
@@ -10696,7 +10782,7 @@
         <v>24</v>
       </c>
       <c r="BD68">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE68" s="17" t="s">
@@ -10706,10 +10792,10 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>626</v>
       </c>
@@ -10750,7 +10836,7 @@
         <v>24</v>
       </c>
       <c r="BD69">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE69" s="19" t="s">
@@ -10760,10 +10846,10 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>626</v>
       </c>
@@ -10804,7 +10890,7 @@
         <v>24</v>
       </c>
       <c r="BD70">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE70" s="17" t="s">
@@ -10814,10 +10900,10 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>626</v>
       </c>
@@ -10858,7 +10944,7 @@
         <v>24</v>
       </c>
       <c r="BD71">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE71" s="19" t="s">
@@ -10868,10 +10954,10 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>626</v>
       </c>
@@ -10912,7 +10998,7 @@
         <v>24</v>
       </c>
       <c r="BD72">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE72" s="17" t="s">
@@ -10922,10 +11008,10 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>626</v>
       </c>
@@ -10966,7 +11052,7 @@
         <v>24</v>
       </c>
       <c r="BD73">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE73" s="19" t="s">
@@ -10976,10 +11062,10 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>626</v>
       </c>
@@ -11020,7 +11106,7 @@
         <v>24</v>
       </c>
       <c r="BD74">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE74" s="17" t="s">
@@ -11030,10 +11116,10 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>626</v>
       </c>
@@ -11074,7 +11160,7 @@
         <v>24</v>
       </c>
       <c r="BD75">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE75" s="19" t="s">
@@ -11084,10 +11170,10 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>626</v>
       </c>
@@ -11128,7 +11214,7 @@
         <v>24</v>
       </c>
       <c r="BD76">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE76" s="17" t="s">
@@ -11138,10 +11224,10 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>626</v>
       </c>
@@ -11182,7 +11268,7 @@
         <v>24</v>
       </c>
       <c r="BD77">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE77" s="19" t="s">
@@ -11192,10 +11278,10 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>626</v>
       </c>
@@ -11236,7 +11322,7 @@
         <v>48</v>
       </c>
       <c r="BD78">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE78" s="17" t="s">
@@ -11246,50 +11332,50 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -11360,25 +11446,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y1" t="s">
         <v>868</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>869</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB1" t="s">
         <v>877</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>878</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -11387,7 +11473,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -11396,7 +11482,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -11405,7 +11491,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -11414,7 +11500,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -11423,10 +11509,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AT1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -11438,25 +11524,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="AY1" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AZ1" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="AZ1" s="34" t="s">
+      <c r="BA1" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BB1" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="35" t="s">
         <v>875</v>
-      </c>
-      <c r="BD1" s="35" t="s">
-        <v>876</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -11468,7 +11554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -11549,35 +11635,35 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB73" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <autoFilter ref="A1:AB73"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -11597,7 +11683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row hidden="1" r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -11615,7 +11701,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row hidden="1" r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -11633,7 +11719,7 @@
       </c>
       <c r="F3" s="23"/>
     </row>
-    <row hidden="1" r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -11651,7 +11737,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row hidden="1" r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -11669,7 +11755,7 @@
       </c>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
@@ -11689,7 +11775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row hidden="1" r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -11707,7 +11793,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row hidden="1" r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -11725,7 +11811,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row hidden="1" r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -11743,7 +11829,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row hidden="1" r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -11761,7 +11847,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row hidden="1" r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -11779,7 +11865,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row hidden="1" r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -11797,7 +11883,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row hidden="1" r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -11815,7 +11901,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>114</v>
       </c>
@@ -11835,7 +11921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row hidden="1" r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -11853,7 +11939,7 @@
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -11873,7 +11959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row hidden="1" r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -11891,7 +11977,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row hidden="1" r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -11909,7 +11995,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row hidden="1" r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>114</v>
       </c>
@@ -11927,7 +12013,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row hidden="1" r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>114</v>
       </c>
@@ -11945,7 +12031,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row hidden="1" r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
@@ -11963,7 +12049,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row hidden="1" r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>114</v>
       </c>
@@ -11981,7 +12067,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row hidden="1" r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>114</v>
       </c>
@@ -11999,7 +12085,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row hidden="1" r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>114</v>
       </c>
@@ -12017,7 +12103,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row hidden="1" r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
@@ -12035,7 +12121,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row hidden="1" r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
@@ -12053,7 +12139,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row hidden="1" r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>114</v>
       </c>
@@ -12071,7 +12157,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row hidden="1" r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>114</v>
       </c>
@@ -12091,7 +12177,7 @@
         <v>190</v>
       </c>
     </row>
-    <row hidden="1" r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>114</v>
       </c>
@@ -12109,7 +12195,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row hidden="1" r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>114</v>
       </c>
@@ -12127,7 +12213,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row hidden="1" r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>114</v>
       </c>
@@ -12145,7 +12231,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row hidden="1" r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>114</v>
       </c>
@@ -12163,7 +12249,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row hidden="1" r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>114</v>
       </c>
@@ -12181,7 +12267,7 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row hidden="1" r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -12199,7 +12285,7 @@
       </c>
       <c r="F34" s="23"/>
     </row>
-    <row hidden="1" r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
@@ -12217,7 +12303,7 @@
       </c>
       <c r="F35" s="23"/>
     </row>
-    <row hidden="1" r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>114</v>
       </c>
@@ -12235,7 +12321,7 @@
       </c>
       <c r="F36" s="23"/>
     </row>
-    <row hidden="1" r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>114</v>
       </c>
@@ -12255,7 +12341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row hidden="1" r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>114</v>
       </c>
@@ -12273,7 +12359,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row hidden="1" r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>114</v>
       </c>
@@ -12291,7 +12377,7 @@
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row hidden="1" r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>114</v>
       </c>
@@ -12309,7 +12395,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row hidden="1" r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>114</v>
       </c>
@@ -12327,7 +12413,7 @@
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row hidden="1" r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>114</v>
       </c>
@@ -12345,7 +12431,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row hidden="1" r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>114</v>
       </c>
@@ -12363,7 +12449,7 @@
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row hidden="1" r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>114</v>
       </c>
@@ -12383,7 +12469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row hidden="1" r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>114</v>
       </c>
@@ -12401,7 +12487,7 @@
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row hidden="1" r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>114</v>
       </c>
@@ -12419,7 +12505,7 @@
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row hidden="1" r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>380</v>
       </c>
@@ -12437,7 +12523,7 @@
       </c>
       <c r="F47" s="23"/>
     </row>
-    <row hidden="1" r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>380</v>
       </c>
@@ -12455,7 +12541,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row hidden="1" r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>380</v>
       </c>
@@ -12473,7 +12559,7 @@
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row hidden="1" r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>380</v>
       </c>
@@ -12491,7 +12577,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row hidden="1" ht="28" r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>380</v>
       </c>
@@ -12509,7 +12595,7 @@
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row hidden="1" r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>380</v>
       </c>
@@ -12527,7 +12613,7 @@
       </c>
       <c r="F52" s="23"/>
     </row>
-    <row hidden="1" r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>380</v>
       </c>
@@ -12545,7 +12631,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row hidden="1" r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>380</v>
       </c>
@@ -12563,7 +12649,7 @@
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row hidden="1" r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12581,7 +12667,7 @@
       </c>
       <c r="F55" s="23"/>
     </row>
-    <row hidden="1" r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>380</v>
       </c>
@@ -12599,7 +12685,7 @@
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row hidden="1" r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>380</v>
       </c>
@@ -12617,7 +12703,7 @@
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row hidden="1" r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>380</v>
       </c>
@@ -12635,7 +12721,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row hidden="1" r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>380</v>
       </c>
@@ -12653,7 +12739,7 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row hidden="1" r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>380</v>
       </c>
@@ -12671,7 +12757,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row hidden="1" r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>380</v>
       </c>
@@ -12689,7 +12775,7 @@
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row hidden="1" r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>380</v>
       </c>
@@ -12707,7 +12793,7 @@
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row hidden="1" r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>380</v>
       </c>
@@ -12725,7 +12811,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row hidden="1" r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>380</v>
       </c>
@@ -12743,7 +12829,7 @@
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row hidden="1" r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>380</v>
       </c>
@@ -12761,7 +12847,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row hidden="1" r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>380</v>
       </c>
@@ -12779,7 +12865,7 @@
       </c>
       <c r="F66" s="23"/>
     </row>
-    <row hidden="1" r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>380</v>
       </c>
@@ -12797,7 +12883,7 @@
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row hidden="1" r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>380</v>
       </c>
@@ -12815,7 +12901,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row hidden="1" r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>380</v>
       </c>
@@ -12833,7 +12919,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row hidden="1" r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>380</v>
       </c>
@@ -12851,7 +12937,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row hidden="1" r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>380</v>
       </c>
@@ -12869,7 +12955,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row hidden="1" r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>380</v>
       </c>
@@ -12887,7 +12973,7 @@
       </c>
       <c r="F72" s="23"/>
     </row>
-    <row hidden="1" r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>380</v>
       </c>
@@ -12905,7 +12991,7 @@
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row hidden="1" r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>380</v>
       </c>
@@ -12923,7 +13009,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row hidden="1" r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>380</v>
       </c>
@@ -12941,7 +13027,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row hidden="1" r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>380</v>
       </c>
@@ -12959,7 +13045,7 @@
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row hidden="1" r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>380</v>
       </c>
@@ -12977,7 +13063,7 @@
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row hidden="1" r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>380</v>
       </c>
@@ -12995,7 +13081,7 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row hidden="1" r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>380</v>
       </c>
@@ -13013,7 +13099,7 @@
       </c>
       <c r="F79" s="23"/>
     </row>
-    <row hidden="1" r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>380</v>
       </c>
@@ -13031,7 +13117,7 @@
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row hidden="1" r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>380</v>
       </c>
@@ -13049,7 +13135,7 @@
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row hidden="1" r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>380</v>
       </c>
@@ -13067,7 +13153,7 @@
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row hidden="1" r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>380</v>
       </c>
@@ -13085,7 +13171,7 @@
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row hidden="1" r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>522</v>
       </c>
@@ -13103,7 +13189,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row hidden="1" r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>522</v>
       </c>
@@ -13121,7 +13207,7 @@
       </c>
       <c r="F85" s="23"/>
     </row>
-    <row hidden="1" r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>522</v>
       </c>
@@ -13139,7 +13225,7 @@
       </c>
       <c r="F86" s="23"/>
     </row>
-    <row hidden="1" r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>522</v>
       </c>
@@ -13157,7 +13243,7 @@
       </c>
       <c r="F87" s="23"/>
     </row>
-    <row hidden="1" r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>522</v>
       </c>
@@ -13175,7 +13261,7 @@
       </c>
       <c r="F88" s="23"/>
     </row>
-    <row hidden="1" r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>522</v>
       </c>
@@ -13193,7 +13279,7 @@
       </c>
       <c r="F89" s="23"/>
     </row>
-    <row hidden="1" r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>522</v>
       </c>
@@ -13211,7 +13297,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row hidden="1" r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>522</v>
       </c>
@@ -13229,7 +13315,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row hidden="1" r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>522</v>
       </c>
@@ -13247,7 +13333,7 @@
       </c>
       <c r="F92" s="23"/>
     </row>
-    <row hidden="1" r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>522</v>
       </c>
@@ -13265,7 +13351,7 @@
       </c>
       <c r="F93" s="23"/>
     </row>
-    <row hidden="1" r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>522</v>
       </c>
@@ -13283,7 +13369,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row hidden="1" r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>522</v>
       </c>
@@ -13301,7 +13387,7 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row hidden="1" r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>522</v>
       </c>
@@ -13319,7 +13405,7 @@
       </c>
       <c r="F96" s="23"/>
     </row>
-    <row hidden="1" r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>522</v>
       </c>
@@ -13339,7 +13425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row hidden="1" ht="28" r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>522</v>
       </c>
@@ -13357,7 +13443,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row hidden="1" ht="28" r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>522</v>
       </c>
@@ -13375,7 +13461,7 @@
       </c>
       <c r="F99" s="23"/>
     </row>
-    <row hidden="1" ht="28" r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>522</v>
       </c>
@@ -13393,7 +13479,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row hidden="1" r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>522</v>
       </c>
@@ -13411,7 +13497,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row hidden="1" r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>522</v>
       </c>
@@ -13431,7 +13517,7 @@
         <v>190</v>
       </c>
     </row>
-    <row hidden="1" r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>522</v>
       </c>
@@ -13449,7 +13535,7 @@
       </c>
       <c r="F103" s="23"/>
     </row>
-    <row hidden="1" r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>522</v>
       </c>
@@ -13468,29 +13554,29 @@
       <c r="F104" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F104" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:F104">
     <filterColumn colId="5">
       <filters>
         <filter val="Airtel Money"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -13510,7 +13596,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -13530,7 +13616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -13550,7 +13636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -13570,7 +13656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -13590,7 +13676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
@@ -13610,7 +13696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -13630,7 +13716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -13650,7 +13736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -13670,7 +13756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -13690,7 +13776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -13710,7 +13796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -13730,7 +13816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -13750,7 +13836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>114</v>
       </c>
@@ -13770,7 +13856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -13790,7 +13876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -13810,7 +13896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -13830,7 +13916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -13850,7 +13936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>380</v>
       </c>
@@ -13870,7 +13956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>380</v>
       </c>
@@ -13890,7 +13976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>380</v>
       </c>
@@ -13910,7 +13996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>380</v>
       </c>
@@ -13930,7 +14016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>380</v>
       </c>
@@ -13950,7 +14036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>380</v>
       </c>
@@ -13970,7 +14056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>380</v>
       </c>
@@ -13990,7 +14076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>380</v>
       </c>
@@ -14010,7 +14096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>380</v>
       </c>
@@ -14030,7 +14116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>380</v>
       </c>
@@ -14050,7 +14136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>522</v>
       </c>
@@ -14070,7 +14156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>522</v>
       </c>
@@ -14090,7 +14176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>522</v>
       </c>
@@ -14111,27 +14197,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -14151,7 +14237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
@@ -14169,6 +14255,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3035,15 +3035,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>Charges (MK)</t>
-  </si>
-  <si>
-    <t>Bundle Price (MK)</t>
-  </si>
-  <si>
-    <t>Loan Amount (MK)</t>
-  </si>
-  <si>
     <t>Accumulator</t>
   </si>
   <si>
@@ -3143,242 +3134,251 @@
     <t>BenefitVoice|Data|SMS</t>
   </si>
   <si>
+    <t>Prod Customer Number</t>
+  </si>
+  <si>
+    <t>Prod SIM Number</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTE</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>89265029100300150859</t>
+  </si>
+  <si>
+    <t>Prod-Customer Number</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>210621000474</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>Charges (MWK)</t>
+  </si>
+  <si>
+    <t>Bundle Price (MWK)</t>
+  </si>
+  <si>
+    <t>Loan Amount (MWK)</t>
+  </si>
+  <si>
     <t>Amount
-(MK)</t>
+(MWK)</t>
   </si>
   <si>
     <t>Service Charge
-(MK)</t>
+(MWK)</t>
   </si>
   <si>
     <t>Pre balance
-(MK)</t>
+(MWK)</t>
   </si>
   <si>
     <t>Post balance
-(MK)</t>
-  </si>
-  <si>
-    <t>Prod Customer Number</t>
-  </si>
-  <si>
-    <t>Prod SIM Number</t>
-  </si>
-  <si>
-    <t>QXByQDIwMjE</t>
-  </si>
-  <si>
-    <t>UmFvQDA4OTE</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>U29hQDIwMjE</t>
-  </si>
-  <si>
-    <t>89265029100300150859</t>
-  </si>
-  <si>
-    <t>Prod-Customer Number</t>
-  </si>
-  <si>
-    <t>Auth Pop up(TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>Voucher Id</t>
-  </si>
-  <si>
-    <t>reverseTransaction</t>
-  </si>
-  <si>
-    <t>resetPin</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>unblock</t>
-  </si>
-  <si>
-    <t>sendNotification</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>resetMe2UPassword</t>
-  </si>
-  <si>
-    <t>simUnBarring</t>
-  </si>
-  <si>
-    <t>simBarring</t>
-  </si>
-  <si>
-    <t>changeServiceClass</t>
-  </si>
-  <si>
-    <t>Question Label</t>
-  </si>
-  <si>
-    <t>Question_Key</t>
-  </si>
-  <si>
-    <t>Answer_key</t>
-  </si>
-  <si>
-    <t>Airtel Money Name</t>
-  </si>
-  <si>
-    <t>AM_NAME</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.firstName</t>
-  </si>
-  <si>
-    <t>Available Credit Balance</t>
-  </si>
-  <si>
-    <t>AVAILABLE_CREDIT_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
-  </si>
-  <si>
-    <t>GSM Name</t>
-  </si>
-  <si>
-    <t>GSM_NAME</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
-  </si>
-  <si>
-    <t>Usage History Last Five Transaction</t>
-  </si>
-  <si>
-    <t>LAST_FIVE_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>Last Recharge Date</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_DATE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
-  </si>
-  <si>
-    <t>Last Recharge Value</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_VALUE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
-  </si>
-  <si>
-    <t>Last Transaction Amount</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_AMOUNT</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
-  </si>
-  <si>
-    <t>Last Transaction Id</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
-  </si>
-  <si>
-    <t>Last Transaction Msisdn</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_MSISDN</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>NATIONAL_ID</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
-  </si>
-  <si>
-    <t>Register Id</t>
-  </si>
-  <si>
-    <t>REGISTERED_ID</t>
-  </si>
-  <si>
-    <t>Two Last Dialled Number</t>
-  </si>
-  <si>
-    <t>TWO_LAST_DIALLED_NUMBER</t>
-  </si>
-  <si>
-    <t>AM Wallet Balance</t>
-  </si>
-  <si>
-    <t>WALLET_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
-  </si>
-  <si>
-    <t>210621000474</t>
-  </si>
-  <si>
-    <t>UC-UT Offer</t>
-  </si>
-  <si>
-    <t>Offer ID</t>
-  </si>
-  <si>
-    <t>Offer Name</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>PAM Service ID</t>
-  </si>
-  <si>
-    <t>Offer Type</t>
-  </si>
-  <si>
-    <t>Offer State</t>
-  </si>
-  <si>
-    <t>No. Of DAs</t>
-  </si>
-  <si>
-    <t>Friends and Family</t>
-  </si>
-  <si>
-    <t>FnF Number</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>FnF Indicator</t>
+(MWK)</t>
   </si>
 </sst>
 </file>
@@ -3731,7 +3731,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3779,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3827,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3875,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,10 +4268,10 @@
         <v>217</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -4300,7 +4300,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -4332,7 +4332,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4349,7 +4349,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -4369,7 +4369,7 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -4389,10 +4389,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D6" s="42">
         <v>998270828</v>
@@ -4631,7 +4631,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,13 +5019,13 @@
         <v>851</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5050,7 +5050,7 @@
     </row>
     <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5059,10 +5059,10 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="J3" s="38" t="b">
         <v>0</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -5252,35 +5252,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5288,125 +5288,125 @@
         <v>160</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5557,7 @@
         <v>823</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5702,16 +5702,16 @@
         <v>186</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -5773,7 +5773,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>995</v>
+        <v>1102</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -5782,7 +5782,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -5821,7 +5821,7 @@
         <v>201</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>996</v>
+        <v>1103</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5940,7 +5940,7 @@
         <v>886</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>997</v>
+        <v>1104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>887</v>
@@ -6047,7 +6047,7 @@
         <v>983</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>995</v>
+        <v>1102</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
@@ -6137,19 +6137,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="E17" s="37" t="s">
         <v>999</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1002</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -6162,19 +6162,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="E18" s="37" t="s">
         <v>1009</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>1012</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>845</v>
@@ -6189,66 +6189,66 @@
     </row>
     <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>1031</v>
+        <v>1105</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>1014</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>1017</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>1032</v>
+        <v>1106</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>1033</v>
+        <v>1107</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>1034</v>
+        <v>1108</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>189</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G20" s="37" t="s">
         <v>1021</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>1024</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6259,34 +6259,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -6294,22 +6294,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>845</v>
@@ -11635,7 +11635,7 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="615" windowWidth="29385" windowHeight="9405" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="9405" windowWidth="29385" xWindow="1800" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="11" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="11"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
+    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
+    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
+    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
+    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
+    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
+    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
+    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
+    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
+    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
+    <sheet name="QuestionAnswerKey" r:id="rId17" sheetId="24"/>
+    <sheet name="State Queue Mapping" r:id="rId18" sheetId="20"/>
+    <sheet name="Transfer To Queue" r:id="rId19" sheetId="21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="1110">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3379,12 +3379,16 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>070721054637</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3591,87 +3595,87 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="5"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="3"/>
@@ -3699,7 +3703,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3712,7 +3716,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3731,12 +3735,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3779,12 +3783,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3827,12 +3831,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3875,12 +3879,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3913,10 +3917,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3951,7 +3955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4003,7 +4007,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4114,21 +4118,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4145,7 +4149,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4197,14 +4201,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4213,12 +4217,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4399,13 +4403,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4414,9 +4418,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,12 +4607,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4687,18 +4691,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4710,9 +4714,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,13 +4774,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4785,8 +4789,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,12 +4841,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4851,10 +4855,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,12 +4879,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,18 +4893,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.125" style="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="28" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="28" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="28" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="28" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="28" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="28" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="28" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4944,7 +4948,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row ht="141.75" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>831</v>
       </c>
@@ -4974,12 +4978,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4988,15 +4992,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.875" style="28" collapsed="1"/>
-    <col min="3" max="3" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="8.875" style="28" collapsed="1"/>
-    <col min="7" max="7" width="14" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.875" style="28" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="13.375" collapsed="true"/>
+    <col min="2" max="2" style="28" width="8.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="4" max="6" style="28" width="8.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="28" width="14.0" collapsed="true"/>
+    <col min="8" max="16384" style="28" width="8.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row ht="47.25" r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>845</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1044</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>1045</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>1049</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>1051</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>1054</v>
       </c>
@@ -5229,13 +5233,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5244,10 +5248,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.875" style="28" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="41.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="28" width="36.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="57.625" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,7 +5276,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1061</v>
       </c>
@@ -5410,12 +5414,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5424,11 +5428,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="30" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="30" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="30" width="19.125" collapsed="true"/>
+    <col min="2" max="2" style="30" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="30" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5466,7 +5470,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>866</v>
       </c>
@@ -5487,7 +5491,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5530,13 +5534,13 @@
       <c r="K4" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5545,8 +5549,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,13 +5598,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5609,7 +5613,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5648,12 +5652,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
@@ -5662,15 +5666,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -6187,7 +6191,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row ht="47.25" r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>1013</v>
       </c>
@@ -6322,48 +6326,48 @@
       <c r="M22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -6664,7 +6668,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD4" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <f ref="BD3:BD4" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -6751,7 +6755,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -6763,13 +6767,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB78"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6778,32 +6782,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <f ref="BD3:BD66" si="0" t="shared">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="19" t="s">
@@ -7194,7 +7198,7 @@
         <v>24</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="17" t="s">
@@ -7245,7 +7249,7 @@
         <v>24</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE5" s="19" t="s">
@@ -7329,7 +7333,7 @@
         <v>24</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="17" t="s">
@@ -7419,7 +7423,7 @@
         <v>24</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="19" t="s">
@@ -7503,7 +7507,7 @@
         <v>24</v>
       </c>
       <c r="BD8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="17" t="s">
@@ -7554,7 +7558,7 @@
         <v>24</v>
       </c>
       <c r="BD9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE9" s="19" t="s">
@@ -7608,7 +7612,7 @@
         <v>24</v>
       </c>
       <c r="BD10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="17" t="s">
@@ -7662,7 +7666,7 @@
         <v>24</v>
       </c>
       <c r="BD11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE11" s="19" t="s">
@@ -7716,7 +7720,7 @@
         <v>24</v>
       </c>
       <c r="BD12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE12" s="17" t="s">
@@ -7770,7 +7774,7 @@
         <v>24</v>
       </c>
       <c r="BD13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE13" s="19" t="s">
@@ -7824,7 +7828,7 @@
         <v>24</v>
       </c>
       <c r="BD14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE14" s="17" t="s">
@@ -7878,7 +7882,7 @@
         <v>24</v>
       </c>
       <c r="BD15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE15" s="19" t="s">
@@ -7932,7 +7936,7 @@
         <v>24</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE16" s="17" t="s">
@@ -7986,7 +7990,7 @@
         <v>24</v>
       </c>
       <c r="BD17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE17" s="19" t="s">
@@ -8040,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="17" t="s">
@@ -8094,7 +8098,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="19" t="s">
@@ -8148,7 +8152,7 @@
         <v>24</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE20" s="17" t="s">
@@ -8202,7 +8206,7 @@
         <v>24</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE21" s="19" t="s">
@@ -8256,7 +8260,7 @@
         <v>24</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="17" t="s">
@@ -8310,7 +8314,7 @@
         <v>24</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE23" s="19" t="s">
@@ -8364,7 +8368,7 @@
         <v>24</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="17" t="s">
@@ -8418,7 +8422,7 @@
         <v>24</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="19" t="s">
@@ -8472,7 +8476,7 @@
         <v>24</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="17" t="s">
@@ -8526,7 +8530,7 @@
         <v>24</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="19" t="s">
@@ -8580,7 +8584,7 @@
         <v>24</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE28" s="17" t="s">
@@ -8634,7 +8638,7 @@
         <v>24</v>
       </c>
       <c r="BD29">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE29" s="19" t="s">
@@ -8688,7 +8692,7 @@
         <v>24</v>
       </c>
       <c r="BD30">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE30" s="17" t="s">
@@ -8760,7 +8764,7 @@
         <v>24</v>
       </c>
       <c r="BD31">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE31" s="19" t="s">
@@ -8814,7 +8818,7 @@
         <v>24</v>
       </c>
       <c r="BD32">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE32" s="17" t="s">
@@ -8868,7 +8872,7 @@
         <v>24</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE33" s="19" t="s">
@@ -8946,7 +8950,7 @@
         <v>24</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE34" s="17" t="s">
@@ -9000,7 +9004,7 @@
         <v>24</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE35" s="19" t="s">
@@ -9054,7 +9058,7 @@
         <v>24</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE36" s="17" t="s">
@@ -9108,7 +9112,7 @@
         <v>48</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE37" s="19" t="s">
@@ -9162,7 +9166,7 @@
         <v>24</v>
       </c>
       <c r="BD38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE38" s="17" t="s">
@@ -9216,7 +9220,7 @@
         <v>24</v>
       </c>
       <c r="BD39">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE39" s="19" t="s">
@@ -9270,7 +9274,7 @@
         <v>24</v>
       </c>
       <c r="BD40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE40" s="17" t="s">
@@ -9324,7 +9328,7 @@
         <v>24</v>
       </c>
       <c r="BD41">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE41" s="19" t="s">
@@ -9378,7 +9382,7 @@
         <v>24</v>
       </c>
       <c r="BD42">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE42" s="17" t="s">
@@ -9432,7 +9436,7 @@
         <v>24</v>
       </c>
       <c r="BD43">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="19" t="s">
@@ -9486,7 +9490,7 @@
         <v>24</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE44" s="17" t="s">
@@ -9540,7 +9544,7 @@
         <v>24</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE45" s="19" t="s">
@@ -9594,7 +9598,7 @@
         <v>24</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE46" s="17" t="s">
@@ -9648,7 +9652,7 @@
         <v>24</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE47" s="19" t="s">
@@ -9702,7 +9706,7 @@
         <v>24</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE48" s="17" t="s">
@@ -9756,7 +9760,7 @@
         <v>24</v>
       </c>
       <c r="BD49">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE49" s="19" t="s">
@@ -9810,7 +9814,7 @@
         <v>48</v>
       </c>
       <c r="BD50">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE50" s="17" t="s">
@@ -9864,7 +9868,7 @@
         <v>48</v>
       </c>
       <c r="BD51">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE51" s="19" t="s">
@@ -9918,7 +9922,7 @@
         <v>24</v>
       </c>
       <c r="BD52">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE52" s="17" t="s">
@@ -9972,7 +9976,7 @@
         <v>24</v>
       </c>
       <c r="BD53">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE53" s="19" t="s">
@@ -10026,7 +10030,7 @@
         <v>24</v>
       </c>
       <c r="BD54">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="17" t="s">
@@ -10080,7 +10084,7 @@
         <v>24</v>
       </c>
       <c r="BD55">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE55" s="19" t="s">
@@ -10134,7 +10138,7 @@
         <v>24</v>
       </c>
       <c r="BD56">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE56" s="17" t="s">
@@ -10188,7 +10192,7 @@
         <v>24</v>
       </c>
       <c r="BD57">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE57" s="19" t="s">
@@ -10242,7 +10246,7 @@
         <v>24</v>
       </c>
       <c r="BD58">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE58" s="17" t="s">
@@ -10296,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="BD59">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE59" s="19" t="s">
@@ -10350,7 +10354,7 @@
         <v>24</v>
       </c>
       <c r="BD60">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE60" s="17" t="s">
@@ -10404,7 +10408,7 @@
         <v>24</v>
       </c>
       <c r="BD61">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="19" t="s">
@@ -10458,7 +10462,7 @@
         <v>24</v>
       </c>
       <c r="BD62">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="17" t="s">
@@ -10512,7 +10516,7 @@
         <v>48</v>
       </c>
       <c r="BD63">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE63" s="19" t="s">
@@ -10566,7 +10570,7 @@
         <v>24</v>
       </c>
       <c r="BD64">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="17" t="s">
@@ -10620,7 +10624,7 @@
         <v>24</v>
       </c>
       <c r="BD65">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE65" s="19" t="s">
@@ -10674,7 +10678,7 @@
         <v>24</v>
       </c>
       <c r="BD66">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE66" s="17" t="s">
@@ -10728,7 +10732,7 @@
         <v>24</v>
       </c>
       <c r="BD67">
-        <f t="shared" ref="BD67:BD78" si="1">SUM(AW67,AY67,BA67,BC67)</f>
+        <f ref="BD67:BD78" si="1" t="shared">SUM(AW67,AY67,BA67,BC67)</f>
         <v>24</v>
       </c>
       <c r="BE67" s="19" t="s">
@@ -10782,7 +10786,7 @@
         <v>24</v>
       </c>
       <c r="BD68">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE68" s="17" t="s">
@@ -10836,7 +10840,7 @@
         <v>24</v>
       </c>
       <c r="BD69">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE69" s="19" t="s">
@@ -10890,7 +10894,7 @@
         <v>24</v>
       </c>
       <c r="BD70">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE70" s="17" t="s">
@@ -10944,7 +10948,7 @@
         <v>24</v>
       </c>
       <c r="BD71">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE71" s="19" t="s">
@@ -10998,7 +11002,7 @@
         <v>24</v>
       </c>
       <c r="BD72">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE72" s="17" t="s">
@@ -11052,7 +11056,7 @@
         <v>24</v>
       </c>
       <c r="BD73">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE73" s="19" t="s">
@@ -11106,7 +11110,7 @@
         <v>24</v>
       </c>
       <c r="BD74">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE74" s="17" t="s">
@@ -11160,7 +11164,7 @@
         <v>24</v>
       </c>
       <c r="BD75">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="19" t="s">
@@ -11214,7 +11218,7 @@
         <v>24</v>
       </c>
       <c r="BD76">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE76" s="17" t="s">
@@ -11268,7 +11272,7 @@
         <v>24</v>
       </c>
       <c r="BD77">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE77" s="19" t="s">
@@ -11322,7 +11326,7 @@
         <v>48</v>
       </c>
       <c r="BD78">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE78" s="17" t="s">
@@ -11336,46 +11340,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -11635,32 +11639,32 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB73"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11683,7 +11687,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -11701,7 +11705,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -11719,7 +11723,7 @@
       </c>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -11737,7 +11741,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -11775,7 +11779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -11793,7 +11797,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -11811,7 +11815,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -11829,7 +11833,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -11847,7 +11851,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -11865,7 +11869,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -11883,7 +11887,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -11959,7 +11963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -11977,7 +11981,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -11995,7 +11999,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>114</v>
       </c>
@@ -12013,7 +12017,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>114</v>
       </c>
@@ -12031,7 +12035,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
@@ -12049,7 +12053,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>114</v>
       </c>
@@ -12067,7 +12071,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>114</v>
       </c>
@@ -12085,7 +12089,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>114</v>
       </c>
@@ -12103,7 +12107,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
@@ -12121,7 +12125,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
@@ -12139,7 +12143,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>114</v>
       </c>
@@ -12157,7 +12161,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>114</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>114</v>
       </c>
@@ -12195,7 +12199,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>114</v>
       </c>
@@ -12213,7 +12217,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>114</v>
       </c>
@@ -12231,7 +12235,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>114</v>
       </c>
@@ -12249,7 +12253,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>114</v>
       </c>
@@ -12267,7 +12271,7 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -12285,7 +12289,7 @@
       </c>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
@@ -12303,7 +12307,7 @@
       </c>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>114</v>
       </c>
@@ -12321,7 +12325,7 @@
       </c>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>114</v>
       </c>
@@ -12341,7 +12345,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>114</v>
       </c>
@@ -12359,7 +12363,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>114</v>
       </c>
@@ -12377,7 +12381,7 @@
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>114</v>
       </c>
@@ -12395,7 +12399,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>114</v>
       </c>
@@ -12413,7 +12417,7 @@
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>114</v>
       </c>
@@ -12431,7 +12435,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>114</v>
       </c>
@@ -12449,7 +12453,7 @@
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>114</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>114</v>
       </c>
@@ -12487,7 +12491,7 @@
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>114</v>
       </c>
@@ -12505,7 +12509,7 @@
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>380</v>
       </c>
@@ -12523,7 +12527,7 @@
       </c>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>380</v>
       </c>
@@ -12541,7 +12545,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>380</v>
       </c>
@@ -12559,7 +12563,7 @@
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>380</v>
       </c>
@@ -12577,7 +12581,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>380</v>
       </c>
@@ -12595,7 +12599,7 @@
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>380</v>
       </c>
@@ -12613,7 +12617,7 @@
       </c>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>380</v>
       </c>
@@ -12631,7 +12635,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>380</v>
       </c>
@@ -12649,7 +12653,7 @@
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12667,7 +12671,7 @@
       </c>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>380</v>
       </c>
@@ -12685,7 +12689,7 @@
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>380</v>
       </c>
@@ -12703,7 +12707,7 @@
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>380</v>
       </c>
@@ -12721,7 +12725,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>380</v>
       </c>
@@ -12739,7 +12743,7 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>380</v>
       </c>
@@ -12757,7 +12761,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>380</v>
       </c>
@@ -12775,7 +12779,7 @@
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>380</v>
       </c>
@@ -12793,7 +12797,7 @@
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>380</v>
       </c>
@@ -12811,7 +12815,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>380</v>
       </c>
@@ -12829,7 +12833,7 @@
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>380</v>
       </c>
@@ -12847,7 +12851,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>380</v>
       </c>
@@ -12865,7 +12869,7 @@
       </c>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>380</v>
       </c>
@@ -12883,7 +12887,7 @@
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>380</v>
       </c>
@@ -12901,7 +12905,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>380</v>
       </c>
@@ -12919,7 +12923,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>380</v>
       </c>
@@ -12937,7 +12941,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>380</v>
       </c>
@@ -12955,7 +12959,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>380</v>
       </c>
@@ -12973,7 +12977,7 @@
       </c>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>380</v>
       </c>
@@ -12991,7 +12995,7 @@
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>380</v>
       </c>
@@ -13009,7 +13013,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>380</v>
       </c>
@@ -13027,7 +13031,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>380</v>
       </c>
@@ -13045,7 +13049,7 @@
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>380</v>
       </c>
@@ -13063,7 +13067,7 @@
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>380</v>
       </c>
@@ -13081,7 +13085,7 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>380</v>
       </c>
@@ -13099,7 +13103,7 @@
       </c>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>380</v>
       </c>
@@ -13117,7 +13121,7 @@
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>380</v>
       </c>
@@ -13135,7 +13139,7 @@
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>380</v>
       </c>
@@ -13153,7 +13157,7 @@
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>380</v>
       </c>
@@ -13171,7 +13175,7 @@
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>522</v>
       </c>
@@ -13189,7 +13193,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>522</v>
       </c>
@@ -13207,7 +13211,7 @@
       </c>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>522</v>
       </c>
@@ -13225,7 +13229,7 @@
       </c>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>522</v>
       </c>
@@ -13243,7 +13247,7 @@
       </c>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>522</v>
       </c>
@@ -13261,7 +13265,7 @@
       </c>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>522</v>
       </c>
@@ -13279,7 +13283,7 @@
       </c>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>522</v>
       </c>
@@ -13297,7 +13301,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>522</v>
       </c>
@@ -13315,7 +13319,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>522</v>
       </c>
@@ -13333,7 +13337,7 @@
       </c>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>522</v>
       </c>
@@ -13351,7 +13355,7 @@
       </c>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>522</v>
       </c>
@@ -13369,7 +13373,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>522</v>
       </c>
@@ -13387,7 +13391,7 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>522</v>
       </c>
@@ -13405,7 +13409,7 @@
       </c>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>522</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" ht="25.5" r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>522</v>
       </c>
@@ -13443,7 +13447,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" ht="25.5" r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>522</v>
       </c>
@@ -13461,7 +13465,7 @@
       </c>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" ht="25.5" r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>522</v>
       </c>
@@ -13479,7 +13483,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>522</v>
       </c>
@@ -13497,7 +13501,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>522</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>522</v>
       </c>
@@ -13535,7 +13539,7 @@
       </c>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>522</v>
       </c>
@@ -13561,13 +13565,13 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14197,24 +14201,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14255,6 +14259,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,44 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4A1892-4DA2-6A4A-A5E5-A6A83B2B0934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="615" windowWidth="29385" windowHeight="9405" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="11" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
+    <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId5"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId6"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId7"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId8"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId9"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId18"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId19"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1116">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3379,13 +3381,34 @@
   <si>
     <t>Post balance
 (MWK)</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3463,6 +3486,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3600,7 +3630,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3668,14 +3698,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3731,7 +3764,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3812,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3860,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3908,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4204,24 +4237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4307,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -4327,7 +4360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2388192</v>
       </c>
@@ -4344,7 +4377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2390495</v>
       </c>
@@ -4364,7 +4397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2394650</v>
       </c>
@@ -4384,7 +4417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
         <v>13221514</v>
       </c>
@@ -4405,21 +4438,79 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -4430,7 +4521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -4441,7 +4532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -4452,7 +4543,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -4463,7 +4554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -4474,7 +4565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -4485,7 +4576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -4496,7 +4587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>110</v>
       </c>
@@ -4507,7 +4598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>111</v>
       </c>
@@ -4518,7 +4609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
@@ -4529,7 +4620,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4537,7 +4628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
@@ -4545,7 +4636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
@@ -4553,7 +4644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
@@ -4561,7 +4652,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
@@ -4569,7 +4660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
@@ -4577,27 +4668,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
@@ -4607,17 +4698,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -4634,7 +4725,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
@@ -4651,7 +4742,7 @@
         <v>998270828</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -4668,7 +4759,7 @@
         <v>998270828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4697,8 +4788,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4708,14 +4799,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -4726,7 +4817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4734,7 +4825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4742,7 +4833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -4750,7 +4841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -4758,7 +4849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4775,21 +4866,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" style="27" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>809</v>
       </c>
@@ -4797,7 +4888,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>811</v>
       </c>
@@ -4805,7 +4896,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>813</v>
       </c>
@@ -4813,7 +4904,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>815</v>
       </c>
@@ -4821,17 +4912,17 @@
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>818</v>
       </c>
@@ -4841,23 +4932,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>819</v>
       </c>
@@ -4879,31 +4970,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.83203125" style="28" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="28" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.1640625" style="28" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" style="28" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.1640625" style="28" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="28" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" style="28" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.83203125" style="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -4944,7 +5035,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>831</v>
       </c>
@@ -4978,25 +5069,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.875" style="28" collapsed="1"/>
+    <col min="1" max="1" width="13.33203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.83203125" style="28" collapsed="1"/>
     <col min="3" max="3" width="11" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="8.875" style="28" collapsed="1"/>
+    <col min="4" max="6" width="8.83203125" style="28" collapsed="1"/>
     <col min="7" max="7" width="14" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.875" style="28" collapsed="1"/>
+    <col min="8" max="16384" width="8.83203125" style="28" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>845</v>
       </c>
@@ -5028,7 +5119,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>852</v>
       </c>
@@ -5048,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>1037</v>
       </c>
@@ -5068,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>1038</v>
       </c>
@@ -5084,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1039</v>
       </c>
@@ -5100,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>1040</v>
       </c>
@@ -5116,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>1041</v>
       </c>
@@ -5132,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>1042</v>
       </c>
@@ -5148,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>1043</v>
       </c>
@@ -5164,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>1044</v>
       </c>
@@ -5180,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1045</v>
       </c>
@@ -5196,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>1046</v>
       </c>
@@ -5212,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>1047</v>
       </c>
@@ -5234,23 +5325,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.875" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.875" style="28" collapsed="1"/>
+    <col min="2" max="2" width="36.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.6640625" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="28" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>1048</v>
       </c>
@@ -5261,7 +5352,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>1051</v>
       </c>
@@ -5272,7 +5363,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>1054</v>
       </c>
@@ -5283,7 +5374,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>160</v>
       </c>
@@ -5294,7 +5385,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1059</v>
       </c>
@@ -5305,7 +5396,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>1062</v>
       </c>
@@ -5314,7 +5405,7 @@
       </c>
       <c r="C6" s="46"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>1064</v>
       </c>
@@ -5325,7 +5416,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>1067</v>
       </c>
@@ -5336,7 +5427,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>1070</v>
       </c>
@@ -5347,7 +5438,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>1073</v>
       </c>
@@ -5358,7 +5449,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1076</v>
       </c>
@@ -5369,7 +5460,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>1079</v>
       </c>
@@ -5380,7 +5471,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>1082</v>
       </c>
@@ -5389,7 +5480,7 @@
       </c>
       <c r="C13" s="46"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>1084</v>
       </c>
@@ -5398,7 +5489,7 @@
       </c>
       <c r="C14" s="46"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1086</v>
       </c>
@@ -5414,24 +5505,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1640625" style="30" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="30" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.83203125" style="30" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>855</v>
       </c>
@@ -5466,7 +5557,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>866</v>
       </c>
@@ -5487,7 +5578,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -5508,7 +5599,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5535,21 +5626,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>822</v>
       </c>
@@ -5560,7 +5704,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>866</v>
       </c>
@@ -5571,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
@@ -5582,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
@@ -5599,81 +5743,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -5714,7 +5805,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -5741,7 +5832,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -5768,7 +5859,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
@@ -5795,7 +5886,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>196</v>
       </c>
@@ -5828,7 +5919,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>202</v>
       </c>
@@ -5853,7 +5944,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>204</v>
       </c>
@@ -5878,7 +5969,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
@@ -5905,7 +5996,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>209</v>
       </c>
@@ -5932,7 +6023,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>885</v>
       </c>
@@ -5959,7 +6050,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>890</v>
       </c>
@@ -5986,7 +6077,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>896</v>
       </c>
@@ -6017,7 +6108,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>904</v>
       </c>
@@ -6042,7 +6133,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>983</v>
       </c>
@@ -6079,7 +6170,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>988</v>
       </c>
@@ -6110,7 +6201,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>991</v>
       </c>
@@ -6135,7 +6226,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>995</v>
       </c>
@@ -6160,7 +6251,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>1005</v>
       </c>
@@ -6187,7 +6278,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>1010</v>
       </c>
@@ -6228,7 +6319,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>1016</v>
       </c>
@@ -6257,7 +6348,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1090</v>
       </c>
@@ -6292,7 +6383,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1098</v>
       </c>
@@ -6329,41 +6420,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EC55C-50FD-CF4A-96A9-314D7D272238}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -6623,7 +6763,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
@@ -6674,7 +6814,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>130</v>
       </c>
@@ -6762,48 +6902,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB78"/>
+  <autoFilter ref="A1:AB78" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -6982,7 +7122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -7063,7 +7203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
@@ -7117,7 +7257,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>130</v>
       </c>
@@ -7204,7 +7344,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>130</v>
       </c>
@@ -7258,7 +7398,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>130</v>
       </c>
@@ -7342,7 +7482,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>130</v>
       </c>
@@ -7432,7 +7572,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>130</v>
       </c>
@@ -7513,7 +7653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>130</v>
       </c>
@@ -7567,7 +7707,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -7621,7 +7761,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>130</v>
       </c>
@@ -7675,7 +7815,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>130</v>
       </c>
@@ -7729,7 +7869,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>130</v>
       </c>
@@ -7783,7 +7923,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>130</v>
       </c>
@@ -7837,7 +7977,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>130</v>
       </c>
@@ -7891,7 +8031,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>130</v>
       </c>
@@ -7945,7 +8085,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>130</v>
       </c>
@@ -7999,7 +8139,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>130</v>
       </c>
@@ -8053,7 +8193,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>626</v>
       </c>
@@ -8107,7 +8247,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>626</v>
       </c>
@@ -8161,7 +8301,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>626</v>
       </c>
@@ -8215,7 +8355,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>626</v>
       </c>
@@ -8269,7 +8409,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>626</v>
       </c>
@@ -8323,7 +8463,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>626</v>
       </c>
@@ -8377,7 +8517,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>626</v>
       </c>
@@ -8431,7 +8571,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>626</v>
       </c>
@@ -8485,7 +8625,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>626</v>
       </c>
@@ -8539,7 +8679,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>626</v>
       </c>
@@ -8593,7 +8733,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>626</v>
       </c>
@@ -8647,7 +8787,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>626</v>
       </c>
@@ -8701,7 +8841,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>626</v>
       </c>
@@ -8773,7 +8913,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>626</v>
       </c>
@@ -8827,7 +8967,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>626</v>
       </c>
@@ -8881,7 +9021,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>626</v>
       </c>
@@ -8959,7 +9099,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>626</v>
       </c>
@@ -9013,7 +9153,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>626</v>
       </c>
@@ -9067,7 +9207,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>626</v>
       </c>
@@ -9121,7 +9261,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>626</v>
       </c>
@@ -9175,7 +9315,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>626</v>
       </c>
@@ -9229,7 +9369,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>626</v>
       </c>
@@ -9283,7 +9423,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>626</v>
       </c>
@@ -9337,7 +9477,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>626</v>
       </c>
@@ -9391,7 +9531,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>626</v>
       </c>
@@ -9445,7 +9585,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>626</v>
       </c>
@@ -9499,7 +9639,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>626</v>
       </c>
@@ -9553,7 +9693,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>626</v>
       </c>
@@ -9607,7 +9747,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>626</v>
       </c>
@@ -9661,7 +9801,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>626</v>
       </c>
@@ -9715,7 +9855,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>626</v>
       </c>
@@ -9769,7 +9909,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>626</v>
       </c>
@@ -9823,7 +9963,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>626</v>
       </c>
@@ -9877,7 +10017,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>626</v>
       </c>
@@ -9931,7 +10071,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>626</v>
       </c>
@@ -9985,7 +10125,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>626</v>
       </c>
@@ -10039,7 +10179,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>626</v>
       </c>
@@ -10093,7 +10233,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>626</v>
       </c>
@@ -10147,7 +10287,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>626</v>
       </c>
@@ -10201,7 +10341,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>626</v>
       </c>
@@ -10255,7 +10395,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>626</v>
       </c>
@@ -10309,7 +10449,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>626</v>
       </c>
@@ -10363,7 +10503,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>626</v>
       </c>
@@ -10417,7 +10557,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>626</v>
       </c>
@@ -10471,7 +10611,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>626</v>
       </c>
@@ -10525,7 +10665,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>626</v>
       </c>
@@ -10579,7 +10719,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>626</v>
       </c>
@@ -10633,7 +10773,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>626</v>
       </c>
@@ -10687,7 +10827,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>626</v>
       </c>
@@ -10741,7 +10881,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>626</v>
       </c>
@@ -10795,7 +10935,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>626</v>
       </c>
@@ -10849,7 +10989,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>626</v>
       </c>
@@ -10903,7 +11043,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>626</v>
       </c>
@@ -10957,7 +11097,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>626</v>
       </c>
@@ -11011,7 +11151,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>626</v>
       </c>
@@ -11065,7 +11205,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>626</v>
       </c>
@@ -11119,7 +11259,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>626</v>
       </c>
@@ -11173,7 +11313,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>626</v>
       </c>
@@ -11227,7 +11367,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>626</v>
       </c>
@@ -11281,7 +11421,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>626</v>
       </c>
@@ -11340,42 +11480,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -11554,7 +11694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
@@ -11639,14 +11779,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB73"/>
+  <autoFilter ref="A1:AB73" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -11654,16 +11794,16 @@
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -11683,7 +11823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -11701,7 +11841,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -11719,7 +11859,7 @@
       </c>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -11737,7 +11877,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -11755,7 +11895,7 @@
       </c>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
@@ -11775,7 +11915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -11793,7 +11933,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -11811,7 +11951,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -11829,7 +11969,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -11847,7 +11987,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -11865,7 +12005,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -11883,7 +12023,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -11901,7 +12041,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>114</v>
       </c>
@@ -11921,7 +12061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -11939,7 +12079,7 @@
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -11959,7 +12099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -11977,7 +12117,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -11995,7 +12135,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>114</v>
       </c>
@@ -12013,7 +12153,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>114</v>
       </c>
@@ -12031,7 +12171,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
@@ -12049,7 +12189,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>114</v>
       </c>
@@ -12067,7 +12207,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>114</v>
       </c>
@@ -12085,7 +12225,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>114</v>
       </c>
@@ -12103,7 +12243,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
@@ -12121,7 +12261,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
@@ -12139,7 +12279,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>114</v>
       </c>
@@ -12157,7 +12297,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>114</v>
       </c>
@@ -12177,7 +12317,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>114</v>
       </c>
@@ -12195,7 +12335,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>114</v>
       </c>
@@ -12213,7 +12353,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>114</v>
       </c>
@@ -12231,7 +12371,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>114</v>
       </c>
@@ -12249,7 +12389,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>114</v>
       </c>
@@ -12267,7 +12407,7 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>114</v>
       </c>
@@ -12285,7 +12425,7 @@
       </c>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>114</v>
       </c>
@@ -12303,7 +12443,7 @@
       </c>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>114</v>
       </c>
@@ -12321,7 +12461,7 @@
       </c>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>114</v>
       </c>
@@ -12341,7 +12481,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>114</v>
       </c>
@@ -12359,7 +12499,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>114</v>
       </c>
@@ -12377,7 +12517,7 @@
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>114</v>
       </c>
@@ -12395,7 +12535,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>114</v>
       </c>
@@ -12413,7 +12553,7 @@
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>114</v>
       </c>
@@ -12431,7 +12571,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>114</v>
       </c>
@@ -12449,7 +12589,7 @@
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>114</v>
       </c>
@@ -12469,7 +12609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>114</v>
       </c>
@@ -12487,7 +12627,7 @@
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>114</v>
       </c>
@@ -12505,7 +12645,7 @@
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>380</v>
       </c>
@@ -12523,7 +12663,7 @@
       </c>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>380</v>
       </c>
@@ -12541,7 +12681,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>380</v>
       </c>
@@ -12559,7 +12699,7 @@
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>380</v>
       </c>
@@ -12577,7 +12717,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>380</v>
       </c>
@@ -12595,7 +12735,7 @@
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>380</v>
       </c>
@@ -12613,7 +12753,7 @@
       </c>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>380</v>
       </c>
@@ -12631,7 +12771,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>380</v>
       </c>
@@ -12649,7 +12789,7 @@
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12667,7 +12807,7 @@
       </c>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>380</v>
       </c>
@@ -12685,7 +12825,7 @@
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>380</v>
       </c>
@@ -12703,7 +12843,7 @@
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>380</v>
       </c>
@@ -12721,7 +12861,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>380</v>
       </c>
@@ -12739,7 +12879,7 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>380</v>
       </c>
@@ -12757,7 +12897,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>380</v>
       </c>
@@ -12775,7 +12915,7 @@
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>380</v>
       </c>
@@ -12793,7 +12933,7 @@
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>380</v>
       </c>
@@ -12811,7 +12951,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>380</v>
       </c>
@@ -12829,7 +12969,7 @@
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>380</v>
       </c>
@@ -12847,7 +12987,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>380</v>
       </c>
@@ -12865,7 +13005,7 @@
       </c>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>380</v>
       </c>
@@ -12883,7 +13023,7 @@
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>380</v>
       </c>
@@ -12901,7 +13041,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>380</v>
       </c>
@@ -12919,7 +13059,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>380</v>
       </c>
@@ -12937,7 +13077,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>380</v>
       </c>
@@ -12955,7 +13095,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>380</v>
       </c>
@@ -12973,7 +13113,7 @@
       </c>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>380</v>
       </c>
@@ -12991,7 +13131,7 @@
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>380</v>
       </c>
@@ -13009,7 +13149,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>380</v>
       </c>
@@ -13027,7 +13167,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>380</v>
       </c>
@@ -13045,7 +13185,7 @@
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>380</v>
       </c>
@@ -13063,7 +13203,7 @@
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>380</v>
       </c>
@@ -13081,7 +13221,7 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>380</v>
       </c>
@@ -13099,7 +13239,7 @@
       </c>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>380</v>
       </c>
@@ -13117,7 +13257,7 @@
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>380</v>
       </c>
@@ -13135,7 +13275,7 @@
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>380</v>
       </c>
@@ -13153,7 +13293,7 @@
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>380</v>
       </c>
@@ -13171,7 +13311,7 @@
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>522</v>
       </c>
@@ -13189,7 +13329,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>522</v>
       </c>
@@ -13207,7 +13347,7 @@
       </c>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>522</v>
       </c>
@@ -13225,7 +13365,7 @@
       </c>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>522</v>
       </c>
@@ -13243,7 +13383,7 @@
       </c>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>522</v>
       </c>
@@ -13261,7 +13401,7 @@
       </c>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>522</v>
       </c>
@@ -13279,7 +13419,7 @@
       </c>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>522</v>
       </c>
@@ -13297,7 +13437,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>522</v>
       </c>
@@ -13315,7 +13455,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>522</v>
       </c>
@@ -13333,7 +13473,7 @@
       </c>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>522</v>
       </c>
@@ -13351,7 +13491,7 @@
       </c>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>522</v>
       </c>
@@ -13369,7 +13509,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>522</v>
       </c>
@@ -13387,7 +13527,7 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>522</v>
       </c>
@@ -13405,7 +13545,7 @@
       </c>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>522</v>
       </c>
@@ -13425,7 +13565,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>522</v>
       </c>
@@ -13443,7 +13583,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>522</v>
       </c>
@@ -13461,7 +13601,7 @@
       </c>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>522</v>
       </c>
@@ -13479,7 +13619,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
         <v>522</v>
       </c>
@@ -13497,7 +13637,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>522</v>
       </c>
@@ -13517,7 +13657,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>522</v>
       </c>
@@ -13535,7 +13675,7 @@
       </c>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>522</v>
       </c>
@@ -13554,7 +13694,7 @@
       <c r="F104" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F104">
+  <autoFilter ref="A1:F104" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="Airtel Money"/>
@@ -13566,17 +13706,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -13596,7 +13736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
@@ -13616,7 +13756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>114</v>
       </c>
@@ -13636,7 +13776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
@@ -13656,7 +13796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>114</v>
       </c>
@@ -13676,7 +13816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
@@ -13696,7 +13836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>114</v>
       </c>
@@ -13716,7 +13856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
@@ -13736,7 +13876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
@@ -13756,7 +13896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>114</v>
       </c>
@@ -13776,7 +13916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -13796,7 +13936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>114</v>
       </c>
@@ -13816,7 +13956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
@@ -13836,7 +13976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>114</v>
       </c>
@@ -13856,7 +13996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
@@ -13876,7 +14016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -13896,7 +14036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>114</v>
       </c>
@@ -13916,7 +14056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -13936,7 +14076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>380</v>
       </c>
@@ -13956,7 +14096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>380</v>
       </c>
@@ -13976,7 +14116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>380</v>
       </c>
@@ -13996,7 +14136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>380</v>
       </c>
@@ -14016,7 +14156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>380</v>
       </c>
@@ -14036,7 +14176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>380</v>
       </c>
@@ -14056,7 +14196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>380</v>
       </c>
@@ -14076,7 +14216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>380</v>
       </c>
@@ -14096,7 +14236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>380</v>
       </c>
@@ -14116,7 +14256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>380</v>
       </c>
@@ -14136,7 +14276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>522</v>
       </c>
@@ -14156,7 +14296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>522</v>
       </c>
@@ -14176,7 +14316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>522</v>
       </c>
@@ -14194,64 +14334,6 @@
       </c>
       <c r="F31" s="23" t="s">
         <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -8,37 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4A1892-4DA2-6A4A-A5E5-A6A83B2B0934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE9994-3D79-274E-BF48-AE857A3974A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="11" r:id="rId3"/>
     <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId5"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId6"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId8"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId9"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId15"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId18"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId20"/>
+    <sheet name="OpenAPIClientConfig" sheetId="26" r:id="rId5"/>
+    <sheet name="ClientConfig" sheetId="27" r:id="rId6"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId7"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId8"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId10"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId11"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId12"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId14"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId15"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId16"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId17"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId18"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1120">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3402,6 +3404,18 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
   </si>
 </sst>
 </file>
@@ -3630,7 +3644,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3701,6 +3715,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4438,6 +4453,2562 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F104"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101" s="23"/>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="F104" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F104" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Airtel Money"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4495,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -4698,7 +7269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4788,7 +7359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4866,7 +7437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4932,7 +7503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4970,7 +7541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5069,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -5318,307 +7889,6 @@
       <c r="J13" s="38" t="b">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.6640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.83203125" style="28" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" style="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="30" collapsed="1"/>
-    <col min="3" max="3" width="13.83203125" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="30" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>855</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>856</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>857</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>858</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>859</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>860</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>861</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>863</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>864</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>866</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5680,6 +7950,307 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.6640625" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="28" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C14" s="46"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="30" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="30" collapsed="1"/>
+    <col min="3" max="3" width="13.83203125" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="30" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>863</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -6423,7 +8994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EC55C-50FD-CF4A-96A9-314D7D272238}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -6447,7 +9018,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>1112</v>
       </c>
@@ -6455,7 +9026,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>1114</v>
       </c>
@@ -6469,6 +9040,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A494BF76-0C6C-6E43-BC12-01D564B3CFD7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="48">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A4B4D-3512-3942-8176-4ABB3A590448}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
+        <v>5</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG4"/>
   <sheetViews>
@@ -6908,7 +9560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
@@ -11480,7 +14132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
@@ -11783,2560 +14435,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F104"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="F59" s="23"/>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="F62" s="23"/>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="F63" s="23"/>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="F65" s="23"/>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="F66" s="23"/>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="F67" s="23"/>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="F70" s="23"/>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F76" s="23"/>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" s="23"/>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="F78" s="23"/>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="F79" s="23"/>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F81" s="23"/>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="F83" s="23"/>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F84" s="23"/>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="F85" s="23"/>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="F86" s="23"/>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="F87" s="23"/>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="F88" s="23"/>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="F89" s="23"/>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="F90" s="23"/>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F91" s="23"/>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="F92" s="23"/>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="F93" s="23"/>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="F94" s="23"/>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="F95" s="23"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="F96" s="23"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="F98" s="23"/>
-    </row>
-    <row r="99" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="F99" s="23"/>
-    </row>
-    <row r="100" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="F100" s="23"/>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="F101" s="23"/>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="F103" s="23"/>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="F104" s="23"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F104" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Airtel Money"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE9994-3D79-274E-BF48-AE857A3974A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CFC02-17BC-9B48-B63D-A322BEBBAD7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,29 @@
     <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
     <sheet name="OpenAPIClientConfig" sheetId="26" r:id="rId5"/>
     <sheet name="ClientConfig" sheetId="27" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId7"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId8"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId10"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId11"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId12"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId14"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId15"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId16"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId17"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId18"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId20"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId21"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
+    <sheet name="AgentDetails" sheetId="28" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId8"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId9"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId10"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId11"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId12"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId13"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId15"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId16"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId17"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId18"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId20"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId21"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId22"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1124">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3416,6 +3417,18 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -4453,6 +4466,311 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>880</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>882</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="AY1" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="AZ1" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="BA1" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="BB1" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="BC1" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="BD1" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="AV2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW2" s="17">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AB73" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
@@ -6373,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -7008,7 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7066,7 +7384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -7269,7 +7587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7359,7 +7677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -7437,7 +7755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -7503,7 +7821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -7541,7 +7859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -7640,7 +7958,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -7896,60 +8267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -8129,7 +8447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -8250,7 +8568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -9082,7 +9400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A4B4D-3512-3942-8176-4ABB3A590448}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -9121,6 +9439,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA88F-F815-2C4E-9035-97C79DD66962}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG4"/>
   <sheetViews>
@@ -9560,7 +9913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
@@ -14130,309 +14483,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BG2"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>867</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>868</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>876</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>877</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>878</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>879</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>880</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>882</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>883</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>868</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX1" s="34" t="s">
-        <v>869</v>
-      </c>
-      <c r="AY1" s="34" t="s">
-        <v>870</v>
-      </c>
-      <c r="AZ1" s="34" t="s">
-        <v>871</v>
-      </c>
-      <c r="BA1" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="BB1" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="BC1" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="BD1" s="35" t="s">
-        <v>875</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="AV2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW2" s="17">
-        <v>24</v>
-      </c>
-      <c r="BD2">
-        <f>SUM(AW2,AY2,BA2,BC2)</f>
-        <v>24</v>
-      </c>
-      <c r="BE2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:AB73" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CFC02-17BC-9B48-B63D-A322BEBBAD7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCF5B4-8067-9A4E-85E8-FCD2EBF42894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="1134">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3413,12 +3413,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -3429,6 +3423,42 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
   </si>
 </sst>
 </file>
@@ -3657,7 +3687,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3729,6 +3759,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9398,10 +9429,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A4B4D-3512-3942-8176-4ABB3A590448}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9411,18 +9442,33 @@
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="48" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="48">
         <v>1</v>
       </c>
@@ -9430,8 +9476,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>626</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G4" s="48">
+        <v>999546394</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48">
+        <v>123</v>
+      </c>
+      <c r="H5" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9442,7 +9561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EA88F-F815-2C4E-9035-97C79DD66962}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -9450,13 +9569,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>1120</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,7 +9584,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCF5B4-8067-9A4E-85E8-FCD2EBF42894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A4BCEE-6396-C148-BA9B-38144B3653E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -8046,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8257,7 +8257,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9431,7 +9431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A4B4D-3512-3942-8176-4ABB3A590448}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A4BCEE-6396-C148-BA9B-38144B3653E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A922D9-93A6-0F4A-9CF3-FD3BD9DAB1E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1137">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3459,13 +3459,22 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3553,6 +3562,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3687,7 +3702,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3760,6 +3775,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7895,7 +7919,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7983,6 +8007,9 @@
       <c r="I2" s="28" t="s">
         <v>824</v>
       </c>
+      <c r="J2" s="51" t="s">
+        <v>1134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8046,7 +8073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -8300,10 +8327,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8472,6 +8499,15 @@
       <c r="C15" s="38" t="s">
         <v>1088</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C16" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A922D9-93A6-0F4A-9CF3-FD3BD9DAB1E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5298D1C-6E13-C74F-99FD-5DCFC395AFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1137">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2728,19 +2728,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -3468,13 +3456,25 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3569,6 +3569,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3620,7 +3627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3691,6 +3698,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3702,7 +3722,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3784,6 +3804,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4384,10 +4407,10 @@
         <v>217</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4395,7 +4418,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -4416,7 +4439,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -4448,7 +4471,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -4465,7 +4488,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -4485,7 +4508,7 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -4505,10 +4528,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D6" s="42">
         <v>998270828</v>
@@ -4815,7 +4838,7 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +7689,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -8008,7 +8031,7 @@
         <v>824</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -8110,13 +8133,13 @@
         <v>851</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8141,7 +8164,7 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -8150,10 +8173,10 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="38" t="b">
         <v>0</v>
@@ -8161,7 +8184,7 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -8177,7 +8200,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -8193,7 +8216,7 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -8209,7 +8232,7 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -8225,7 +8248,7 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -8241,7 +8264,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -8257,7 +8280,7 @@
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -8273,7 +8296,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -8289,7 +8312,7 @@
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -8305,7 +8328,7 @@
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -8329,7 +8352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8343,35 +8366,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -8379,133 +8402,133 @@
         <v>160</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C16" s="52"/>
     </row>
@@ -8657,7 +8680,7 @@
         <v>823</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8703,8 +8726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8715,7 +8738,7 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -8749,16 +8772,16 @@
         <v>186</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -8766,7 +8789,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -8805,7 +8828,7 @@
         <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -8820,7 +8843,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -8829,7 +8852,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -8868,7 +8891,7 @@
         <v>201</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -8987,7 +9010,7 @@
         <v>886</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>887</v>
@@ -9010,22 +9033,24 @@
       <c r="A11" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="53" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>891</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="54" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>985</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -9035,28 +9060,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>903</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -9066,19 +9091,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -9091,10 +9116,10 @@
     </row>
     <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
@@ -9103,22 +9128,22 @@
         <v>195</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I14" s="37" t="s">
         <v>214</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>201</v>
@@ -9128,7 +9153,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -9143,10 +9168,10 @@
         <v>168</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>195</v>
@@ -9159,16 +9184,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>845</v>
@@ -9184,19 +9209,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>992</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>994</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>995</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>996</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>997</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>998</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>999</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -9209,19 +9234,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>1005</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>1009</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>845</v>
@@ -9236,66 +9261,66 @@
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>189</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -9306,34 +9331,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -9341,22 +9366,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>845</v>
@@ -9391,32 +9416,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="47" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -9440,10 +9465,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -9455,7 +9480,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -9480,28 +9505,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F1" s="48" t="s">
         <v>1122</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>1123</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>1124</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -9512,16 +9537,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="49" t="s">
@@ -9532,16 +9557,16 @@
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="49" t="s">
@@ -9556,16 +9581,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G4" s="48">
         <v>999546394</v>
@@ -9578,7 +9603,7 @@
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -9605,13 +9630,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9620,7 +9645,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -10414,7 +10439,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.2">
@@ -10555,7 +10580,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.2">
@@ -10639,7 +10664,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="36" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
@@ -10729,7 +10754,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
@@ -10864,7 +10889,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
@@ -10918,7 +10943,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="36" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
@@ -10972,7 +10997,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="36" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
@@ -11026,7 +11051,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
@@ -11080,7 +11105,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
@@ -11134,7 +11159,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
@@ -11188,7 +11213,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.2">
@@ -11242,7 +11267,7 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.2">
@@ -11296,7 +11321,7 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.2">
@@ -11350,7 +11375,7 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.2">
@@ -11404,7 +11429,7 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.2">
@@ -11458,7 +11483,7 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.2">
@@ -11512,7 +11537,7 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.2">
@@ -11566,7 +11591,7 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.2">
@@ -11620,7 +11645,7 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.2">
@@ -11674,7 +11699,7 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.2">
@@ -11728,7 +11753,7 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.2">
@@ -11782,7 +11807,7 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.2">
@@ -11836,7 +11861,7 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.2">
@@ -11890,7 +11915,7 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.2">
@@ -11944,7 +11969,7 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.2">
@@ -11998,7 +12023,7 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.2">
@@ -12070,7 +12095,7 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.2">
@@ -12124,7 +12149,7 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.2">
@@ -12178,7 +12203,7 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.2">
@@ -12256,7 +12281,7 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.2">
@@ -12310,7 +12335,7 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.2">
@@ -12364,7 +12389,7 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.2">
@@ -12418,7 +12443,7 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.2">
@@ -12472,7 +12497,7 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.2">
@@ -12526,7 +12551,7 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.2">
@@ -12580,7 +12605,7 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.2">
@@ -12634,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.2">
@@ -12688,7 +12713,7 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.2">
@@ -12742,7 +12767,7 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.2">
@@ -12796,7 +12821,7 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.2">
@@ -12850,7 +12875,7 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.2">
@@ -12904,7 +12929,7 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.2">
@@ -12958,7 +12983,7 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.2">
@@ -13012,7 +13037,7 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.2">
@@ -13066,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.2">
@@ -13120,7 +13145,7 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.2">
@@ -13174,7 +13199,7 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.2">
@@ -13228,7 +13253,7 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.2">
@@ -13282,7 +13307,7 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.2">
@@ -13336,7 +13361,7 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.2">
@@ -13390,7 +13415,7 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.2">
@@ -13444,7 +13469,7 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.2">
@@ -13498,7 +13523,7 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.2">
@@ -13552,7 +13577,7 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.2">
@@ -13606,7 +13631,7 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.2">
@@ -13660,7 +13685,7 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.2">
@@ -13714,7 +13739,7 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.2">
@@ -13768,7 +13793,7 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.2">
@@ -13822,7 +13847,7 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.2">
@@ -13876,7 +13901,7 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.2">
@@ -13930,7 +13955,7 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.2">
@@ -13984,7 +14009,7 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.2">
@@ -14038,7 +14063,7 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.2">
@@ -14092,7 +14117,7 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.2">
@@ -14146,7 +14171,7 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.2">
@@ -14200,7 +14225,7 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.2">
@@ -14254,7 +14279,7 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.2">
@@ -14308,7 +14333,7 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.2">
@@ -14362,7 +14387,7 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.2">
@@ -14416,7 +14441,7 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.2">
@@ -14470,7 +14495,7 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.2">
@@ -14524,7 +14549,7 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.2">
@@ -14578,7 +14603,7 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.2">
@@ -14632,7 +14657,7 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5298D1C-6E13-C74F-99FD-5DCFC395AFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC9F28-7410-B843-8669-08D6D75F23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2860" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -23,37 +23,238 @@
     <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId8"/>
     <sheet name="All NFTR codes" sheetId="22" r:id="rId9"/>
     <sheet name="NFTRTickets-San" sheetId="3" r:id="rId10"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId11"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId12"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId13"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId15"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId16"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId17"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId18"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId19"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId20"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId21"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId22"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId23"/>
+    <sheet name="Assignment Rule" sheetId="29" r:id="rId11"/>
+    <sheet name="SLA Configuration" sheetId="30" r:id="rId12"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId13"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId14"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId15"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId16"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId17"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId18"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId19"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId20"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId21"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId22"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId23"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId24"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'FTRTickets-San'!$A$1:$E$127</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'NFTRTickets-San'!$A$1:$AB$73</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6566C162-EE84-054F-BA31-67A6F213A83F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CB992D30-7399-EF45-84BE-382C7B57209F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{020F6788-CCAA-3C41-9F69-C64936073F13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2F7AB34C-F1AB-8340-8A49-55A60F6928A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E71636D2-612B-F941-9269-4ACBBD28820B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B775F5F0-A678-E84C-A46C-4E19BA4F1349}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BCBC55AE-32E0-FE40-A052-EFFB796ACB68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1157">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3468,13 +3669,73 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3575,6 +3836,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3722,7 +4002,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3807,6 +4087,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4548,7 +4831,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4758,66 +5041,36 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="A2" s="56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
@@ -4849,6 +5102,172 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C36B91-CABA-9943-A888-3245E6CF7C60}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="39">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A60F8-5E4D-6846-ADFA-A6D75B33E692}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>871</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>875</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J2" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F104"/>
@@ -6769,7 +7188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -7404,7 +7823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7462,7 +7881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -7665,7 +8084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7755,7 +8174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -7833,7 +8252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -7899,7 +8318,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -7937,7 +8409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -8039,60 +8511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -8348,7 +8767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -8537,7 +8956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -8658,7 +9077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -8726,7 +9145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/MW.xlsx
+++ b/resources/excels/MW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC9F28-7410-B843-8669-08D6D75F23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0852A15-E3E2-9644-85C6-497B9509A55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2860" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2860" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1154">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3648,15 +3648,6 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -3735,7 +3726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3823,12 +3814,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4002,7 +3987,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4075,20 +4060,14 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -5041,20 +5020,20 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>1137</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>1138</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>1141</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -5113,16 +5092,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>1142</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>1145</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>42</v>
@@ -5131,23 +5110,23 @@
         <v>43</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>71</v>
@@ -5169,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A60F8-5E4D-6846-ADFA-A6D75B33E692}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5177,28 +5156,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="F1" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1155</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>33</v>
@@ -5224,16 +5203,16 @@
       <c r="P1" s="39" t="s">
         <v>874</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="56" t="s">
         <v>875</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -5243,7 +5222,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="J2" s="27">
         <v>0.6</v>
@@ -8502,9 +8481,7 @@
       <c r="I2" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="J2" s="51" t="s">
-        <v>1130</v>
-      </c>
+      <c r="J2" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8516,7 +8493,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8726,7 +8703,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8769,10 +8746,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8941,15 +8918,6 @@
       <c r="C15" s="38" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C16" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9452,22 +9420,22 @@
       <c r="A11" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>891</v>
+      </c>
+      <c r="F11" s="52" t="s">
         <v>1133</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>891</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="52" t="s">
         <v>985</v>
       </c>
       <c r="H11" s="3"/>
